--- a/data/sales_plan.xlsx
+++ b/data/sales_plan.xlsx
@@ -822,7 +822,7 @@
   </sheetPr>
   <dimension ref="A1:C1364"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1323" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C1364"/>
     </sheetView>
   </sheetViews>
@@ -885,7 +885,7 @@
         <v>119</v>
       </c>
       <c r="C5" s="4">
-        <v>4625</v>
+        <v>5838</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -896,7 +896,7 @@
         <v>120</v>
       </c>
       <c r="C6" s="4">
-        <v>4000</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="4">
-        <v>5250</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -918,7 +918,7 @@
         <v>122</v>
       </c>
       <c r="C8" s="4">
-        <v>4000</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -929,7 +929,7 @@
         <v>123</v>
       </c>
       <c r="C9" s="4">
-        <v>5000</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -940,7 +940,7 @@
         <v>124</v>
       </c>
       <c r="C10" s="4">
-        <v>8366</v>
+        <v>9360</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -951,7 +951,7 @@
         <v>125</v>
       </c>
       <c r="C11" s="4">
-        <v>7000</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -962,7 +962,7 @@
         <v>126</v>
       </c>
       <c r="C12" s="4">
-        <v>7750</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -973,7 +973,7 @@
         <v>127</v>
       </c>
       <c r="C13" s="4">
-        <v>8750</v>
+        <v>10250</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
         <v>119</v>
       </c>
       <c r="C17" s="4">
-        <v>1480</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
         <v>120</v>
       </c>
       <c r="C18" s="4">
-        <v>1280</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1039,7 +1039,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="4">
-        <v>1680</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1050,7 +1050,7 @@
         <v>122</v>
       </c>
       <c r="C20" s="4">
-        <v>1280</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1061,7 +1061,7 @@
         <v>123</v>
       </c>
       <c r="C21" s="4">
-        <v>1600</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1072,7 +1072,7 @@
         <v>124</v>
       </c>
       <c r="C22" s="4">
-        <v>2677</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1083,7 +1083,7 @@
         <v>125</v>
       </c>
       <c r="C23" s="4">
-        <v>2240</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1094,7 +1094,7 @@
         <v>126</v>
       </c>
       <c r="C24" s="4">
-        <v>2480</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
         <v>127</v>
       </c>
       <c r="C25" s="4">
-        <v>2800</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1149,7 +1149,7 @@
         <v>119</v>
       </c>
       <c r="C29" s="4">
-        <v>5180</v>
+        <v>5333</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>120</v>
       </c>
       <c r="C30" s="4">
-        <v>4480</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
         <v>121</v>
       </c>
       <c r="C31" s="4">
-        <v>5880</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
         <v>122</v>
       </c>
       <c r="C32" s="4">
-        <v>4480</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1193,7 +1193,7 @@
         <v>123</v>
       </c>
       <c r="C33" s="4">
-        <v>5600</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>124</v>
       </c>
       <c r="C34" s="4">
-        <v>9370</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
         <v>125</v>
       </c>
       <c r="C35" s="4">
-        <v>7840</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1226,7 +1226,7 @@
         <v>126</v>
       </c>
       <c r="C36" s="4">
-        <v>8680</v>
+        <v>9520</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1237,7 +1237,7 @@
         <v>127</v>
       </c>
       <c r="C37" s="4">
-        <v>9800</v>
+        <v>11480</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1281,7 +1281,7 @@
         <v>119</v>
       </c>
       <c r="C41" s="4">
-        <v>5550</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1292,7 +1292,7 @@
         <v>120</v>
       </c>
       <c r="C42" s="4">
-        <v>4800</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1303,7 +1303,7 @@
         <v>121</v>
       </c>
       <c r="C43" s="4">
-        <v>6300</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1314,7 +1314,7 @@
         <v>122</v>
       </c>
       <c r="C44" s="4">
-        <v>4800</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
         <v>123</v>
       </c>
       <c r="C45" s="4">
-        <v>6000</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1336,7 +1336,7 @@
         <v>124</v>
       </c>
       <c r="C46" s="4">
-        <v>10040</v>
+        <v>13320</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1347,7 +1347,7 @@
         <v>125</v>
       </c>
       <c r="C47" s="4">
-        <v>8400</v>
+        <v>8850</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1358,7 +1358,7 @@
         <v>126</v>
       </c>
       <c r="C48" s="4">
-        <v>9300</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>127</v>
       </c>
       <c r="C49" s="4">
-        <v>10500</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1413,7 +1413,7 @@
         <v>119</v>
       </c>
       <c r="C53" s="4">
-        <v>10545</v>
+        <v>13776</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1424,7 +1424,7 @@
         <v>120</v>
       </c>
       <c r="C54" s="4">
-        <v>9120</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1435,7 +1435,7 @@
         <v>121</v>
       </c>
       <c r="C55" s="4">
-        <v>11970</v>
+        <v>16562</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1446,7 +1446,7 @@
         <v>122</v>
       </c>
       <c r="C56" s="4">
-        <v>9120</v>
+        <v>8925</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1457,7 +1457,7 @@
         <v>123</v>
       </c>
       <c r="C57" s="4">
-        <v>11400</v>
+        <v>15750</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1468,7 +1468,7 @@
         <v>124</v>
       </c>
       <c r="C58" s="4">
-        <v>19076</v>
+        <v>25560</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1479,7 +1479,7 @@
         <v>125</v>
       </c>
       <c r="C59" s="4">
-        <v>15960</v>
+        <v>16815</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1490,7 +1490,7 @@
         <v>126</v>
       </c>
       <c r="C60" s="4">
-        <v>17670</v>
+        <v>19380</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1501,7 +1501,7 @@
         <v>127</v>
       </c>
       <c r="C61" s="4">
-        <v>19950</v>
+        <v>23370</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1545,7 +1545,7 @@
         <v>119</v>
       </c>
       <c r="C65" s="4">
-        <v>9435</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1556,7 +1556,7 @@
         <v>120</v>
       </c>
       <c r="C66" s="4">
-        <v>8160</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1567,7 +1567,7 @@
         <v>121</v>
       </c>
       <c r="C67" s="4">
-        <v>10710</v>
+        <v>9492</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1578,7 +1578,7 @@
         <v>122</v>
       </c>
       <c r="C68" s="4">
-        <v>8160</v>
+        <v>7616</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1589,7 +1589,7 @@
         <v>123</v>
       </c>
       <c r="C69" s="4">
-        <v>10200</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1600,7 +1600,7 @@
         <v>124</v>
       </c>
       <c r="C70" s="4">
-        <v>17068</v>
+        <v>24120</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1611,7 +1611,7 @@
         <v>125</v>
       </c>
       <c r="C71" s="4">
-        <v>14280</v>
+        <v>15045</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1622,7 +1622,7 @@
         <v>126</v>
       </c>
       <c r="C72" s="4">
-        <v>15810</v>
+        <v>17340</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1633,7 +1633,7 @@
         <v>127</v>
       </c>
       <c r="C73" s="4">
-        <v>17850</v>
+        <v>20910</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1665,8 +1665,8 @@
       <c r="B76" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C76" s="4">
-        <v>2500</v>
+      <c r="C76" s="5">
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1676,8 +1676,8 @@
       <c r="B77" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="4">
-        <v>1500</v>
+      <c r="C77" s="5">
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1687,8 +1687,8 @@
       <c r="B78" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="4">
-        <v>1500</v>
+      <c r="C78" s="5">
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>123</v>
       </c>
       <c r="C80" s="4">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1721,7 +1721,7 @@
         <v>124</v>
       </c>
       <c r="C81" s="4">
-        <v>4000</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1743,7 +1743,7 @@
         <v>126</v>
       </c>
       <c r="C83" s="4">
-        <v>3500</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1754,7 +1754,7 @@
         <v>127</v>
       </c>
       <c r="C84" s="4">
-        <v>4000</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1798,7 +1798,7 @@
         <v>119</v>
       </c>
       <c r="C88" s="4">
-        <v>7030</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1809,7 +1809,7 @@
         <v>120</v>
       </c>
       <c r="C89" s="4">
-        <v>6080</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1820,7 +1820,7 @@
         <v>121</v>
       </c>
       <c r="C90" s="4">
-        <v>7980</v>
+        <v>8792</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>122</v>
       </c>
       <c r="C91" s="4">
-        <v>6080</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1842,7 +1842,7 @@
         <v>123</v>
       </c>
       <c r="C92" s="4">
-        <v>7600</v>
+        <v>9030</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1853,7 +1853,7 @@
         <v>124</v>
       </c>
       <c r="C93" s="4">
-        <v>12717</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1864,7 +1864,7 @@
         <v>125</v>
       </c>
       <c r="C94" s="4">
-        <v>10640</v>
+        <v>11210</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1875,7 +1875,7 @@
         <v>126</v>
       </c>
       <c r="C95" s="4">
-        <v>11780</v>
+        <v>12920</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1886,7 +1886,7 @@
         <v>127</v>
       </c>
       <c r="C96" s="4">
-        <v>13300</v>
+        <v>15580</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1930,7 +1930,7 @@
         <v>119</v>
       </c>
       <c r="C100" s="4">
-        <v>6660</v>
+        <v>8456</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1941,7 +1941,7 @@
         <v>120</v>
       </c>
       <c r="C101" s="4">
-        <v>5760</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1952,7 +1952,7 @@
         <v>121</v>
       </c>
       <c r="C102" s="4">
-        <v>7560</v>
+        <v>7238</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1963,7 +1963,7 @@
         <v>122</v>
       </c>
       <c r="C103" s="4">
-        <v>5760</v>
+        <v>5355</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1974,7 +1974,7 @@
         <v>123</v>
       </c>
       <c r="C104" s="4">
-        <v>7200</v>
+        <v>9450</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1985,7 +1985,7 @@
         <v>124</v>
       </c>
       <c r="C105" s="4">
-        <v>12048</v>
+        <v>15840</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1996,7 +1996,7 @@
         <v>125</v>
       </c>
       <c r="C106" s="4">
-        <v>10080</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2007,7 +2007,7 @@
         <v>126</v>
       </c>
       <c r="C107" s="4">
-        <v>11160</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2018,7 +2018,7 @@
         <v>127</v>
       </c>
       <c r="C108" s="4">
-        <v>12600</v>
+        <v>14760</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2061,8 +2061,8 @@
       <c r="B112" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="5">
-        <v>525</v>
+      <c r="C112" s="4">
+        <v>1152</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2072,8 +2072,8 @@
       <c r="B113" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C113" s="5">
-        <v>700</v>
+      <c r="C113" s="4">
+        <v>1056</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2084,7 +2084,7 @@
         <v>121</v>
       </c>
       <c r="C114" s="5">
-        <v>525</v>
+        <v>896</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2194,7 +2194,7 @@
         <v>119</v>
       </c>
       <c r="C124" s="4">
-        <v>6290</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2205,7 +2205,7 @@
         <v>120</v>
       </c>
       <c r="C125" s="4">
-        <v>5440</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2216,7 +2216,7 @@
         <v>121</v>
       </c>
       <c r="C126" s="4">
-        <v>7140</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2227,7 +2227,7 @@
         <v>122</v>
       </c>
       <c r="C127" s="4">
-        <v>5440</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2238,7 +2238,7 @@
         <v>123</v>
       </c>
       <c r="C128" s="4">
-        <v>6800</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2249,7 +2249,7 @@
         <v>124</v>
       </c>
       <c r="C129" s="4">
-        <v>11378</v>
+        <v>11880</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2260,7 +2260,7 @@
         <v>125</v>
       </c>
       <c r="C130" s="4">
-        <v>9520</v>
+        <v>10030</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2271,7 +2271,7 @@
         <v>126</v>
       </c>
       <c r="C131" s="4">
-        <v>10540</v>
+        <v>11560</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2282,7 +2282,7 @@
         <v>127</v>
       </c>
       <c r="C132" s="4">
-        <v>11900</v>
+        <v>13940</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2326,7 +2326,7 @@
         <v>119</v>
       </c>
       <c r="C136" s="4">
-        <v>32745</v>
+        <v>33160</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2337,7 +2337,7 @@
         <v>120</v>
       </c>
       <c r="C137" s="4">
-        <v>28320</v>
+        <v>17192</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2348,7 +2348,7 @@
         <v>121</v>
       </c>
       <c r="C138" s="4">
-        <v>37170</v>
+        <v>43358</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2359,7 +2359,7 @@
         <v>122</v>
       </c>
       <c r="C139" s="4">
-        <v>28320</v>
+        <v>24038</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2370,7 +2370,7 @@
         <v>123</v>
       </c>
       <c r="C140" s="4">
-        <v>35400</v>
+        <v>42420</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2381,7 +2381,7 @@
         <v>124</v>
       </c>
       <c r="C141" s="4">
-        <v>59235</v>
+        <v>60120</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2392,7 +2392,7 @@
         <v>125</v>
       </c>
       <c r="C142" s="4">
-        <v>49560</v>
+        <v>52215</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,7 +2403,7 @@
         <v>126</v>
       </c>
       <c r="C143" s="4">
-        <v>54870</v>
+        <v>60180</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2414,7 +2414,7 @@
         <v>127</v>
       </c>
       <c r="C144" s="4">
-        <v>61950</v>
+        <v>72570</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2458,7 +2458,7 @@
         <v>119</v>
       </c>
       <c r="C148" s="4">
-        <v>13320</v>
+        <v>13510</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2469,7 +2469,7 @@
         <v>120</v>
       </c>
       <c r="C149" s="4">
-        <v>11520</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2480,7 +2480,7 @@
         <v>121</v>
       </c>
       <c r="C150" s="4">
-        <v>15120</v>
+        <v>14266</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2491,7 +2491,7 @@
         <v>122</v>
       </c>
       <c r="C151" s="4">
-        <v>11520</v>
+        <v>8925</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2502,7 +2502,7 @@
         <v>123</v>
       </c>
       <c r="C152" s="4">
-        <v>14400</v>
+        <v>15750</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2513,7 +2513,7 @@
         <v>124</v>
       </c>
       <c r="C153" s="4">
-        <v>24095</v>
+        <v>29520</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2524,7 +2524,7 @@
         <v>125</v>
       </c>
       <c r="C154" s="4">
-        <v>20160</v>
+        <v>21240</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2535,7 +2535,7 @@
         <v>126</v>
       </c>
       <c r="C155" s="4">
-        <v>22320</v>
+        <v>24480</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2546,7 +2546,7 @@
         <v>127</v>
       </c>
       <c r="C156" s="4">
-        <v>25200</v>
+        <v>29520</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2590,7 +2590,7 @@
         <v>119</v>
       </c>
       <c r="C160" s="4">
-        <v>7585</v>
+        <v>12418</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2601,7 +2601,7 @@
         <v>120</v>
       </c>
       <c r="C161" s="4">
-        <v>6560</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2612,7 +2612,7 @@
         <v>121</v>
       </c>
       <c r="C162" s="4">
-        <v>8610</v>
+        <v>7784</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2623,7 +2623,7 @@
         <v>122</v>
       </c>
       <c r="C163" s="4">
-        <v>6560</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2634,7 +2634,7 @@
         <v>123</v>
       </c>
       <c r="C164" s="4">
-        <v>8200</v>
+        <v>11130</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
         <v>124</v>
       </c>
       <c r="C165" s="4">
-        <v>13721</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2656,7 +2656,7 @@
         <v>125</v>
       </c>
       <c r="C166" s="4">
-        <v>11480</v>
+        <v>12095</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2667,7 +2667,7 @@
         <v>126</v>
       </c>
       <c r="C167" s="4">
-        <v>12710</v>
+        <v>13940</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2678,7 +2678,7 @@
         <v>127</v>
       </c>
       <c r="C168" s="4">
-        <v>14350</v>
+        <v>16810</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2722,7 +2722,7 @@
         <v>119</v>
       </c>
       <c r="C172" s="4">
-        <v>6475</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2733,7 +2733,7 @@
         <v>120</v>
       </c>
       <c r="C173" s="4">
-        <v>5600</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2744,7 +2744,7 @@
         <v>121</v>
       </c>
       <c r="C174" s="4">
-        <v>7350</v>
+        <v>5894</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2755,7 +2755,7 @@
         <v>122</v>
       </c>
       <c r="C175" s="4">
-        <v>5600</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2766,7 +2766,7 @@
         <v>123</v>
       </c>
       <c r="C176" s="4">
-        <v>7000</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2777,7 +2777,7 @@
         <v>124</v>
       </c>
       <c r="C177" s="4">
-        <v>11713</v>
+        <v>10440</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2788,7 +2788,7 @@
         <v>125</v>
       </c>
       <c r="C178" s="4">
-        <v>9800</v>
+        <v>10325</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2799,7 +2799,7 @@
         <v>126</v>
       </c>
       <c r="C179" s="4">
-        <v>10850</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2810,7 +2810,7 @@
         <v>127</v>
       </c>
       <c r="C180" s="4">
-        <v>12250</v>
+        <v>14350</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2854,7 +2854,7 @@
         <v>119</v>
       </c>
       <c r="C184" s="4">
-        <v>10360</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2865,7 +2865,7 @@
         <v>120</v>
       </c>
       <c r="C185" s="4">
-        <v>8960</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,7 +2876,7 @@
         <v>121</v>
       </c>
       <c r="C186" s="4">
-        <v>11760</v>
+        <v>10136</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2887,7 +2887,7 @@
         <v>122</v>
       </c>
       <c r="C187" s="4">
-        <v>8960</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2898,7 +2898,7 @@
         <v>123</v>
       </c>
       <c r="C188" s="4">
-        <v>11200</v>
+        <v>12390</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2909,7 +2909,7 @@
         <v>124</v>
       </c>
       <c r="C189" s="4">
-        <v>18741</v>
+        <v>23400</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2920,7 +2920,7 @@
         <v>125</v>
       </c>
       <c r="C190" s="4">
-        <v>15680</v>
+        <v>16520</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2931,7 +2931,7 @@
         <v>126</v>
       </c>
       <c r="C191" s="4">
-        <v>17360</v>
+        <v>19040</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2942,7 +2942,7 @@
         <v>127</v>
       </c>
       <c r="C192" s="4">
-        <v>19600</v>
+        <v>22960</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2986,7 +2986,7 @@
         <v>119</v>
       </c>
       <c r="C196" s="4">
-        <v>5365</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2997,7 +2997,7 @@
         <v>120</v>
       </c>
       <c r="C197" s="4">
-        <v>4640</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3008,7 +3008,7 @@
         <v>121</v>
       </c>
       <c r="C198" s="4">
-        <v>6090</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3019,7 +3019,7 @@
         <v>122</v>
       </c>
       <c r="C199" s="4">
-        <v>4640</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3030,7 +3030,7 @@
         <v>123</v>
       </c>
       <c r="C200" s="4">
-        <v>5800</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3041,7 +3041,7 @@
         <v>124</v>
       </c>
       <c r="C201" s="4">
-        <v>9705</v>
+        <v>10440</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3052,7 +3052,7 @@
         <v>125</v>
       </c>
       <c r="C202" s="4">
-        <v>8120</v>
+        <v>8555</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3063,7 +3063,7 @@
         <v>126</v>
       </c>
       <c r="C203" s="4">
-        <v>8990</v>
+        <v>9860</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3074,7 +3074,7 @@
         <v>127</v>
       </c>
       <c r="C204" s="4">
-        <v>10150</v>
+        <v>11890</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3118,7 +3118,7 @@
         <v>119</v>
       </c>
       <c r="C208" s="4">
-        <v>38480</v>
+        <v>33166</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3129,7 +3129,7 @@
         <v>120</v>
       </c>
       <c r="C209" s="4">
-        <v>33280</v>
+        <v>10668</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,7 +3140,7 @@
         <v>121</v>
       </c>
       <c r="C210" s="4">
-        <v>43680</v>
+        <v>28910</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3151,7 +3151,7 @@
         <v>122</v>
       </c>
       <c r="C211" s="4">
-        <v>33280</v>
+        <v>18683</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3162,7 +3162,7 @@
         <v>123</v>
       </c>
       <c r="C212" s="4">
-        <v>41600</v>
+        <v>32970</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3173,7 +3173,7 @@
         <v>124</v>
       </c>
       <c r="C213" s="4">
-        <v>69609</v>
+        <v>70560</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3184,7 +3184,7 @@
         <v>125</v>
       </c>
       <c r="C214" s="4">
-        <v>58240</v>
+        <v>61360</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3195,7 +3195,7 @@
         <v>126</v>
       </c>
       <c r="C215" s="4">
-        <v>64480</v>
+        <v>70720</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3206,7 +3206,7 @@
         <v>127</v>
       </c>
       <c r="C216" s="4">
-        <v>72800</v>
+        <v>85280</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3250,7 +3250,7 @@
         <v>119</v>
       </c>
       <c r="C220" s="4">
-        <v>6105</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3261,7 +3261,7 @@
         <v>120</v>
       </c>
       <c r="C221" s="4">
-        <v>5280</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3272,7 +3272,7 @@
         <v>121</v>
       </c>
       <c r="C222" s="4">
-        <v>6930</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3283,7 +3283,7 @@
         <v>122</v>
       </c>
       <c r="C223" s="4">
-        <v>5280</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3294,7 +3294,7 @@
         <v>123</v>
       </c>
       <c r="C224" s="4">
-        <v>6600</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3305,7 +3305,7 @@
         <v>124</v>
       </c>
       <c r="C225" s="4">
-        <v>11044</v>
+        <v>14760</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3316,7 +3316,7 @@
         <v>125</v>
       </c>
       <c r="C226" s="4">
-        <v>9240</v>
+        <v>9735</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3327,7 +3327,7 @@
         <v>126</v>
       </c>
       <c r="C227" s="4">
-        <v>10230</v>
+        <v>11220</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3338,7 +3338,7 @@
         <v>127</v>
       </c>
       <c r="C228" s="4">
-        <v>11550</v>
+        <v>13530</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3382,7 +3382,7 @@
         <v>119</v>
       </c>
       <c r="C232" s="4">
-        <v>9065</v>
+        <v>8946</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3393,7 +3393,7 @@
         <v>120</v>
       </c>
       <c r="C233" s="4">
-        <v>7840</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3404,7 +3404,7 @@
         <v>121</v>
       </c>
       <c r="C234" s="4">
-        <v>10290</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3415,7 +3415,7 @@
         <v>122</v>
       </c>
       <c r="C235" s="4">
-        <v>7840</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3426,7 +3426,7 @@
         <v>123</v>
       </c>
       <c r="C236" s="4">
-        <v>9800</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3437,7 +3437,7 @@
         <v>124</v>
       </c>
       <c r="C237" s="4">
-        <v>16398</v>
+        <v>20880</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3448,7 +3448,7 @@
         <v>125</v>
       </c>
       <c r="C238" s="4">
-        <v>13720</v>
+        <v>14455</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3459,7 +3459,7 @@
         <v>126</v>
       </c>
       <c r="C239" s="4">
-        <v>15190</v>
+        <v>16660</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3470,7 +3470,7 @@
         <v>127</v>
       </c>
       <c r="C240" s="4">
-        <v>17150</v>
+        <v>20090</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3514,7 +3514,7 @@
         <v>119</v>
       </c>
       <c r="C244" s="4">
-        <v>5180</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3525,7 +3525,7 @@
         <v>120</v>
       </c>
       <c r="C245" s="4">
-        <v>4480</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3536,7 +3536,7 @@
         <v>121</v>
       </c>
       <c r="C246" s="4">
-        <v>5880</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3547,7 +3547,7 @@
         <v>122</v>
       </c>
       <c r="C247" s="4">
-        <v>4480</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3558,7 +3558,7 @@
         <v>123</v>
       </c>
       <c r="C248" s="4">
-        <v>5600</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3569,7 +3569,7 @@
         <v>124</v>
       </c>
       <c r="C249" s="4">
-        <v>9370</v>
+        <v>14040</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3580,7 +3580,7 @@
         <v>125</v>
       </c>
       <c r="C250" s="4">
-        <v>7840</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3591,7 +3591,7 @@
         <v>126</v>
       </c>
       <c r="C251" s="4">
-        <v>8680</v>
+        <v>9520</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3602,7 +3602,7 @@
         <v>127</v>
       </c>
       <c r="C252" s="4">
-        <v>9800</v>
+        <v>11480</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3646,7 +3646,7 @@
         <v>119</v>
       </c>
       <c r="C256" s="4">
-        <v>9065</v>
+        <v>12250</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3657,7 +3657,7 @@
         <v>120</v>
       </c>
       <c r="C257" s="4">
-        <v>7840</v>
+        <v>6258</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3668,7 +3668,7 @@
         <v>121</v>
       </c>
       <c r="C258" s="4">
-        <v>10290</v>
+        <v>8792</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3679,7 +3679,7 @@
         <v>122</v>
       </c>
       <c r="C259" s="4">
-        <v>7840</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3690,7 +3690,7 @@
         <v>123</v>
       </c>
       <c r="C260" s="4">
-        <v>9800</v>
+        <v>12390</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3701,7 +3701,7 @@
         <v>124</v>
       </c>
       <c r="C261" s="4">
-        <v>16398</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3712,7 +3712,7 @@
         <v>125</v>
       </c>
       <c r="C262" s="4">
-        <v>13720</v>
+        <v>14455</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3723,7 +3723,7 @@
         <v>126</v>
       </c>
       <c r="C263" s="4">
-        <v>15190</v>
+        <v>16660</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3734,7 +3734,7 @@
         <v>127</v>
       </c>
       <c r="C264" s="4">
-        <v>17150</v>
+        <v>20090</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3778,7 +3778,7 @@
         <v>119</v>
       </c>
       <c r="C268" s="4">
-        <v>9065</v>
+        <v>12418</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3789,7 +3789,7 @@
         <v>120</v>
       </c>
       <c r="C269" s="4">
-        <v>7840</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3800,7 +3800,7 @@
         <v>121</v>
       </c>
       <c r="C270" s="4">
-        <v>10290</v>
+        <v>8540</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3811,7 +3811,7 @@
         <v>122</v>
       </c>
       <c r="C271" s="4">
-        <v>7840</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3822,7 +3822,7 @@
         <v>123</v>
       </c>
       <c r="C272" s="4">
-        <v>9800</v>
+        <v>11970</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3833,7 +3833,7 @@
         <v>124</v>
       </c>
       <c r="C273" s="4">
-        <v>16398</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3844,7 +3844,7 @@
         <v>125</v>
       </c>
       <c r="C274" s="4">
-        <v>13720</v>
+        <v>14455</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3855,7 +3855,7 @@
         <v>126</v>
       </c>
       <c r="C275" s="4">
-        <v>15190</v>
+        <v>16660</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3866,7 +3866,7 @@
         <v>127</v>
       </c>
       <c r="C276" s="4">
-        <v>17150</v>
+        <v>20090</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3885,10 +3885,10 @@
         <v>129</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C278" s="4">
-        <v>30000</v>
+        <v>20200</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3896,10 +3896,10 @@
         <v>129</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C279" s="4">
-        <v>20000</v>
+        <v>28550</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3907,10 +3907,10 @@
         <v>129</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C280" s="4">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3918,10 +3918,10 @@
         <v>129</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C281" s="4">
-        <v>20000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3929,10 +3929,10 @@
         <v>129</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C282" s="4">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3940,10 +3940,10 @@
         <v>129</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C283" s="4">
-        <v>20000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3951,7 +3951,7 @@
         <v>129</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C284" s="4">
         <v>20000</v>
@@ -3959,13 +3959,13 @@
     </row>
     <row r="285" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C285" s="4">
-        <v>6930</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3973,10 +3973,10 @@
         <v>22</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C286" s="4">
-        <v>10906</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3984,10 +3984,10 @@
         <v>22</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C287" s="4">
-        <v>12642</v>
+        <v>10906</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3995,10 +3995,10 @@
         <v>22</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C288" s="4">
-        <v>8695</v>
+        <v>12642</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4006,10 +4006,10 @@
         <v>22</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C289" s="4">
-        <v>7520</v>
+        <v>10878</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4017,10 +4017,10 @@
         <v>22</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C290" s="4">
-        <v>9870</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4028,10 +4028,10 @@
         <v>22</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C291" s="4">
-        <v>7520</v>
+        <v>7798</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4039,10 +4039,10 @@
         <v>22</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C292" s="4">
-        <v>9400</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4050,10 +4050,10 @@
         <v>22</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C293" s="4">
-        <v>15729</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4061,10 +4061,10 @@
         <v>22</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C294" s="4">
-        <v>13160</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4072,10 +4072,10 @@
         <v>22</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C295" s="4">
-        <v>14570</v>
+        <v>13865</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4083,21 +4083,21 @@
         <v>22</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C296" s="4">
-        <v>16450</v>
+        <v>15980</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C297" s="4">
-        <v>8540</v>
+        <v>19270</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4105,10 +4105,10 @@
         <v>23</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C298" s="4">
-        <v>10318</v>
+        <v>8540</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4116,10 +4116,10 @@
         <v>23</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C299" s="4">
-        <v>6972</v>
+        <v>10318</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4127,10 +4127,10 @@
         <v>23</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C300" s="4">
-        <v>4440</v>
+        <v>6972</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4138,10 +4138,10 @@
         <v>23</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C301" s="4">
-        <v>3840</v>
+        <v>6272</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4149,10 +4149,10 @@
         <v>23</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C302" s="4">
-        <v>5040</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4160,10 +4160,10 @@
         <v>23</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C303" s="4">
-        <v>3840</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4171,10 +4171,10 @@
         <v>23</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C304" s="4">
-        <v>4800</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4182,10 +4182,10 @@
         <v>23</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C305" s="4">
-        <v>8032</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4193,10 +4193,10 @@
         <v>23</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C306" s="4">
-        <v>6720</v>
+        <v>14040</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4204,10 +4204,10 @@
         <v>23</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C307" s="4">
-        <v>7440</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4215,21 +4215,21 @@
         <v>23</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C308" s="4">
-        <v>8400</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C309" s="4">
-        <v>20734</v>
+        <v>9840</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4237,10 +4237,10 @@
         <v>24</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C310" s="4">
-        <v>28224</v>
+        <v>20734</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4248,10 +4248,10 @@
         <v>24</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C311" s="4">
-        <v>48650</v>
+        <v>28224</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4259,10 +4259,10 @@
         <v>24</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C312" s="4">
-        <v>23865</v>
+        <v>48650</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4270,10 +4270,10 @@
         <v>24</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C313" s="4">
-        <v>20640</v>
+        <v>36974</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4281,10 +4281,10 @@
         <v>24</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C314" s="4">
-        <v>27090</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4292,10 +4292,10 @@
         <v>24</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C315" s="4">
-        <v>20640</v>
+        <v>25956</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4303,10 +4303,10 @@
         <v>24</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C316" s="4">
-        <v>25800</v>
+        <v>17612</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4314,10 +4314,10 @@
         <v>24</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C317" s="4">
-        <v>43171</v>
+        <v>31080</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4325,10 +4325,10 @@
         <v>24</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C318" s="4">
-        <v>36120</v>
+        <v>52560</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4336,10 +4336,10 @@
         <v>24</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C319" s="4">
-        <v>39990</v>
+        <v>38055</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4347,21 +4347,21 @@
         <v>24</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C320" s="4">
-        <v>45150</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C321" s="4">
-        <v>6608</v>
+        <v>52890</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4369,10 +4369,10 @@
         <v>25</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C322" s="4">
-        <v>8750</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4380,10 +4380,10 @@
         <v>25</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C323" s="4">
-        <v>5824</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4391,10 +4391,10 @@
         <v>25</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C324" s="4">
-        <v>4995</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4402,10 +4402,10 @@
         <v>25</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C325" s="4">
-        <v>4320</v>
+        <v>5348</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4413,10 +4413,10 @@
         <v>25</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C326" s="4">
-        <v>5670</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4424,10 +4424,10 @@
         <v>25</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C327" s="4">
-        <v>4320</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4435,10 +4435,10 @@
         <v>25</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C328" s="4">
-        <v>5400</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4446,10 +4446,10 @@
         <v>25</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C329" s="4">
-        <v>9036</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4457,10 +4457,10 @@
         <v>25</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C330" s="4">
-        <v>7560</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4468,10 +4468,10 @@
         <v>25</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C331" s="4">
-        <v>8370</v>
+        <v>7965</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4479,21 +4479,21 @@
         <v>25</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C332" s="4">
-        <v>9450</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C333" s="4">
-        <v>27748</v>
+        <v>11070</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4501,10 +4501,10 @@
         <v>26</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C334" s="4">
-        <v>64862</v>
+        <v>27748</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4512,10 +4512,10 @@
         <v>26</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C335" s="4">
-        <v>82502</v>
+        <v>64862</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4523,10 +4523,10 @@
         <v>26</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C336" s="4">
-        <v>53835</v>
+        <v>82502</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4534,10 +4534,10 @@
         <v>26</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C337" s="4">
-        <v>46560</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4545,10 +4545,10 @@
         <v>26</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C338" s="4">
-        <v>61110</v>
+        <v>13398</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4556,10 +4556,10 @@
         <v>26</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C339" s="4">
-        <v>46560</v>
+        <v>51170</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4567,10 +4567,10 @@
         <v>26</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C340" s="4">
-        <v>58200</v>
+        <v>27846</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4578,10 +4578,10 @@
         <v>26</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C341" s="4">
-        <v>97386</v>
+        <v>49140</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4589,10 +4589,10 @@
         <v>26</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C342" s="4">
-        <v>81480</v>
+        <v>93960</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4600,10 +4600,10 @@
         <v>26</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C343" s="4">
-        <v>90210</v>
+        <v>85845</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4611,21 +4611,21 @@
         <v>26</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C344" s="4">
-        <v>101850</v>
+        <v>98940</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C345" s="5">
-        <v>462</v>
+        <v>127</v>
+      </c>
+      <c r="C345" s="4">
+        <v>119310</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4633,10 +4633,10 @@
         <v>27</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C346" s="4">
-        <v>1274</v>
+        <v>116</v>
+      </c>
+      <c r="C346" s="5">
+        <v>462</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4644,10 +4644,10 @@
         <v>27</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C347" s="4">
-        <v>1358</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4655,10 +4655,10 @@
         <v>27</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C348" s="5">
-        <v>740</v>
+        <v>118</v>
+      </c>
+      <c r="C348" s="4">
+        <v>1358</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4666,10 +4666,10 @@
         <v>27</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C349" s="5">
-        <v>640</v>
+        <v>756</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4677,10 +4677,10 @@
         <v>27</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C350" s="5">
-        <v>840</v>
+        <v>798</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4688,10 +4688,10 @@
         <v>27</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C351" s="5">
-        <v>640</v>
+        <v>686</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4699,10 +4699,10 @@
         <v>27</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C352" s="5">
-        <v>800</v>
+        <v>595</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4710,10 +4710,10 @@
         <v>27</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C353" s="4">
-        <v>1339</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4721,10 +4721,10 @@
         <v>27</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C354" s="4">
-        <v>1120</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4732,10 +4732,10 @@
         <v>27</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C355" s="4">
-        <v>1240</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4743,21 +4743,21 @@
         <v>27</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C356" s="4">
-        <v>1400</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C357" s="4">
-        <v>4634</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4765,10 +4765,10 @@
         <v>28</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C358" s="4">
-        <v>9072</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4776,10 +4776,10 @@
         <v>28</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C359" s="4">
-        <v>19278</v>
+        <v>9072</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4787,10 +4787,10 @@
         <v>28</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C360" s="4">
-        <v>13135</v>
+        <v>19278</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4798,10 +4798,10 @@
         <v>28</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C361" s="4">
-        <v>11360</v>
+        <v>12180</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4809,10 +4809,10 @@
         <v>28</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C362" s="4">
-        <v>14910</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4820,10 +4820,10 @@
         <v>28</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C363" s="4">
-        <v>11360</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4831,10 +4831,10 @@
         <v>28</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C364" s="4">
-        <v>14200</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4842,10 +4842,10 @@
         <v>28</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C365" s="4">
-        <v>23761</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4853,10 +4853,10 @@
         <v>28</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C366" s="4">
-        <v>19880</v>
+        <v>17640</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4864,10 +4864,10 @@
         <v>28</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C367" s="4">
-        <v>22010</v>
+        <v>17995</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4875,21 +4875,21 @@
         <v>28</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C368" s="4">
-        <v>24850</v>
+        <v>20740</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C369" s="4">
-        <v>4956</v>
+        <v>25010</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4897,10 +4897,10 @@
         <v>29</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C370" s="4">
-        <v>5292</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4908,10 +4908,10 @@
         <v>29</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C371" s="4">
-        <v>3654</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4919,10 +4919,10 @@
         <v>29</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C372" s="4">
-        <v>2590</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4930,10 +4930,10 @@
         <v>29</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C373" s="4">
-        <v>2240</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4941,10 +4941,10 @@
         <v>29</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C374" s="4">
-        <v>2940</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4952,10 +4952,10 @@
         <v>29</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C375" s="4">
-        <v>2240</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4963,10 +4963,10 @@
         <v>29</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C376" s="4">
-        <v>2800</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4974,10 +4974,10 @@
         <v>29</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C377" s="4">
-        <v>4685</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4985,10 +4985,10 @@
         <v>29</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C378" s="4">
-        <v>3920</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4996,10 +4996,10 @@
         <v>29</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C379" s="4">
-        <v>4340</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5007,21 +5007,21 @@
         <v>29</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C380" s="4">
-        <v>4900</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C381" s="4">
-        <v>5614</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5029,10 +5029,10 @@
         <v>115</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C382" s="4">
-        <v>8708</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5040,10 +5040,10 @@
         <v>115</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C383" s="4">
-        <v>7476</v>
+        <v>8708</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5051,10 +5051,10 @@
         <v>115</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C384" s="4">
-        <v>3700</v>
+        <v>7476</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5062,10 +5062,10 @@
         <v>115</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C385" s="4">
-        <v>1600</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5073,10 +5073,10 @@
         <v>115</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C386" s="4">
-        <v>1890</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5120,7 +5120,7 @@
         <v>119</v>
       </c>
       <c r="C390" s="4">
-        <v>1480</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5130,8 +5130,8 @@
       <c r="B391" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C391" s="4">
-        <v>1280</v>
+      <c r="C391" s="5">
+        <v>420</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5141,8 +5141,8 @@
       <c r="B392" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C392" s="4">
-        <v>1680</v>
+      <c r="C392" s="5">
+        <v>910</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5152,8 +5152,8 @@
       <c r="B393" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C393" s="4">
-        <v>1280</v>
+      <c r="C393" s="5">
+        <v>714</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5164,7 +5164,7 @@
         <v>123</v>
       </c>
       <c r="C394" s="4">
-        <v>1600</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5175,7 +5175,7 @@
         <v>124</v>
       </c>
       <c r="C395" s="4">
-        <v>2677</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5186,7 +5186,7 @@
         <v>125</v>
       </c>
       <c r="C396" s="4">
-        <v>2240</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5197,7 +5197,7 @@
         <v>126</v>
       </c>
       <c r="C397" s="4">
-        <v>2480</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5208,7 +5208,7 @@
         <v>127</v>
       </c>
       <c r="C398" s="4">
-        <v>2800</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,7 +5252,7 @@
         <v>119</v>
       </c>
       <c r="C402" s="4">
-        <v>2035</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5262,8 +5262,8 @@
       <c r="B403" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C403" s="4">
-        <v>1760</v>
+      <c r="C403" s="5">
+        <v>406</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5273,8 +5273,8 @@
       <c r="B404" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C404" s="4">
-        <v>2310</v>
+      <c r="C404" s="5">
+        <v>756</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5284,8 +5284,8 @@
       <c r="B405" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C405" s="4">
-        <v>1760</v>
+      <c r="C405" s="5">
+        <v>833</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5296,7 +5296,7 @@
         <v>123</v>
       </c>
       <c r="C406" s="4">
-        <v>2200</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5307,7 +5307,7 @@
         <v>124</v>
       </c>
       <c r="C407" s="4">
-        <v>3681</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5318,7 +5318,7 @@
         <v>125</v>
       </c>
       <c r="C408" s="4">
-        <v>3080</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5329,7 +5329,7 @@
         <v>126</v>
       </c>
       <c r="C409" s="4">
-        <v>3410</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5340,7 +5340,7 @@
         <v>127</v>
       </c>
       <c r="C410" s="4">
-        <v>3850</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5384,7 +5384,7 @@
         <v>119</v>
       </c>
       <c r="C414" s="4">
-        <v>15170</v>
+        <v>14462</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5395,7 +5395,7 @@
         <v>120</v>
       </c>
       <c r="C415" s="4">
-        <v>13120</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5406,7 +5406,7 @@
         <v>121</v>
       </c>
       <c r="C416" s="4">
-        <v>17220</v>
+        <v>13636</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5417,7 +5417,7 @@
         <v>122</v>
       </c>
       <c r="C417" s="4">
-        <v>13120</v>
+        <v>9282</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5428,7 +5428,7 @@
         <v>123</v>
       </c>
       <c r="C418" s="4">
-        <v>16400</v>
+        <v>16380</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5439,7 +5439,7 @@
         <v>124</v>
       </c>
       <c r="C419" s="4">
-        <v>27442</v>
+        <v>23040</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5450,7 +5450,7 @@
         <v>125</v>
       </c>
       <c r="C420" s="4">
-        <v>22960</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5461,7 +5461,7 @@
         <v>126</v>
       </c>
       <c r="C421" s="4">
-        <v>25420</v>
+        <v>27880</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5472,7 +5472,7 @@
         <v>127</v>
       </c>
       <c r="C422" s="4">
-        <v>28700</v>
+        <v>33620</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5516,7 +5516,7 @@
         <v>119</v>
       </c>
       <c r="C426" s="4">
-        <v>10915</v>
+        <v>15960</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5527,7 +5527,7 @@
         <v>120</v>
       </c>
       <c r="C427" s="4">
-        <v>9440</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5538,7 +5538,7 @@
         <v>121</v>
       </c>
       <c r="C428" s="4">
-        <v>12390</v>
+        <v>12250</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5549,7 +5549,7 @@
         <v>122</v>
       </c>
       <c r="C429" s="4">
-        <v>9440</v>
+        <v>8211</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5560,7 +5560,7 @@
         <v>123</v>
       </c>
       <c r="C430" s="4">
-        <v>11800</v>
+        <v>14490</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5571,7 +5571,7 @@
         <v>124</v>
       </c>
       <c r="C431" s="4">
-        <v>19745</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5582,7 +5582,7 @@
         <v>125</v>
       </c>
       <c r="C432" s="4">
-        <v>16520</v>
+        <v>17405</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5593,7 +5593,7 @@
         <v>126</v>
       </c>
       <c r="C433" s="4">
-        <v>18290</v>
+        <v>20060</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5604,7 +5604,7 @@
         <v>127</v>
       </c>
       <c r="C434" s="4">
-        <v>20650</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5648,7 +5648,7 @@
         <v>119</v>
       </c>
       <c r="C438" s="4">
-        <v>6845</v>
+        <v>11116</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5659,7 +5659,7 @@
         <v>120</v>
       </c>
       <c r="C439" s="4">
-        <v>5920</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5670,7 +5670,7 @@
         <v>121</v>
       </c>
       <c r="C440" s="4">
-        <v>7770</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5681,7 +5681,7 @@
         <v>122</v>
       </c>
       <c r="C441" s="4">
-        <v>5920</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5692,7 +5692,7 @@
         <v>123</v>
       </c>
       <c r="C442" s="4">
-        <v>7400</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5703,7 +5703,7 @@
         <v>124</v>
       </c>
       <c r="C443" s="4">
-        <v>12382</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5714,7 +5714,7 @@
         <v>125</v>
       </c>
       <c r="C444" s="4">
-        <v>10360</v>
+        <v>10915</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5725,7 +5725,7 @@
         <v>126</v>
       </c>
       <c r="C445" s="4">
-        <v>11470</v>
+        <v>12580</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5736,7 +5736,7 @@
         <v>127</v>
       </c>
       <c r="C446" s="4">
-        <v>12950</v>
+        <v>15170</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5780,7 +5780,7 @@
         <v>119</v>
       </c>
       <c r="C450" s="4">
-        <v>44500</v>
+        <v>36013</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5791,7 +5791,7 @@
         <v>120</v>
       </c>
       <c r="C451" s="4">
-        <v>40050</v>
+        <v>37240</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5802,7 +5802,7 @@
         <v>121</v>
       </c>
       <c r="C452" s="4">
-        <v>44500</v>
+        <v>65275</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5813,7 +5813,7 @@
         <v>122</v>
       </c>
       <c r="C453" s="4">
-        <v>38700</v>
+        <v>35260</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5824,7 +5824,7 @@
         <v>123</v>
       </c>
       <c r="C454" s="4">
-        <v>74375</v>
+        <v>56760</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5835,7 +5835,7 @@
         <v>124</v>
       </c>
       <c r="C455" s="4">
-        <v>91375</v>
+        <v>80180</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5846,7 +5846,7 @@
         <v>125</v>
       </c>
       <c r="C456" s="4">
-        <v>79550</v>
+        <v>77700</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5857,7 +5857,7 @@
         <v>126</v>
       </c>
       <c r="C457" s="4">
-        <v>77400</v>
+        <v>65940</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5868,7 +5868,7 @@
         <v>127</v>
       </c>
       <c r="C458" s="4">
-        <v>92450</v>
+        <v>102960</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5912,7 +5912,7 @@
         <v>119</v>
       </c>
       <c r="C462" s="4">
-        <v>41200</v>
+        <v>29661</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5923,7 +5923,7 @@
         <v>120</v>
       </c>
       <c r="C463" s="4">
-        <v>37080</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5934,7 +5934,7 @@
         <v>121</v>
       </c>
       <c r="C464" s="4">
-        <v>41200</v>
+        <v>65472</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5945,7 +5945,7 @@
         <v>122</v>
       </c>
       <c r="C465" s="4">
-        <v>35730</v>
+        <v>36244</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5956,7 +5956,7 @@
         <v>123</v>
       </c>
       <c r="C466" s="4">
-        <v>68600</v>
+        <v>57684</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5967,7 +5967,7 @@
         <v>124</v>
       </c>
       <c r="C467" s="4">
-        <v>82130</v>
+        <v>83600</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5978,7 +5978,7 @@
         <v>125</v>
       </c>
       <c r="C468" s="4">
-        <v>73445</v>
+        <v>81770</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5989,7 +5989,7 @@
         <v>126</v>
       </c>
       <c r="C469" s="4">
-        <v>71460</v>
+        <v>69394</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6000,7 +6000,7 @@
         <v>127</v>
       </c>
       <c r="C470" s="4">
-        <v>85355</v>
+        <v>105300</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6044,7 +6044,7 @@
         <v>119</v>
       </c>
       <c r="C474" s="4">
-        <v>10000</v>
+        <v>8548</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6055,7 +6055,7 @@
         <v>120</v>
       </c>
       <c r="C475" s="4">
-        <v>9000</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6066,7 +6066,7 @@
         <v>121</v>
       </c>
       <c r="C476" s="4">
-        <v>10000</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6077,7 +6077,7 @@
         <v>122</v>
       </c>
       <c r="C477" s="4">
-        <v>11700</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6088,7 +6088,7 @@
         <v>123</v>
       </c>
       <c r="C478" s="4">
-        <v>24500</v>
+        <v>12540</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6099,7 +6099,7 @@
         <v>124</v>
       </c>
       <c r="C479" s="4">
-        <v>32250</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6110,7 +6110,7 @@
         <v>125</v>
       </c>
       <c r="C480" s="4">
-        <v>24050</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6121,7 +6121,7 @@
         <v>126</v>
       </c>
       <c r="C481" s="4">
-        <v>23400</v>
+        <v>15700</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6132,7 +6132,7 @@
         <v>127</v>
       </c>
       <c r="C482" s="4">
-        <v>27950</v>
+        <v>18720</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6176,7 +6176,7 @@
         <v>119</v>
       </c>
       <c r="C486" s="4">
-        <v>4300</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6187,7 +6187,7 @@
         <v>120</v>
       </c>
       <c r="C487" s="4">
-        <v>3870</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6198,7 +6198,7 @@
         <v>121</v>
       </c>
       <c r="C488" s="4">
-        <v>4300</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6209,7 +6209,7 @@
         <v>122</v>
       </c>
       <c r="C489" s="4">
-        <v>3870</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6220,7 +6220,7 @@
         <v>123</v>
       </c>
       <c r="C490" s="4">
-        <v>7525</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6231,7 +6231,7 @@
         <v>124</v>
       </c>
       <c r="C491" s="4">
-        <v>9245</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6242,7 +6242,7 @@
         <v>125</v>
       </c>
       <c r="C492" s="4">
-        <v>7955</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6253,7 +6253,7 @@
         <v>126</v>
       </c>
       <c r="C493" s="4">
-        <v>7740</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6264,7 +6264,7 @@
         <v>127</v>
       </c>
       <c r="C494" s="4">
-        <v>9245</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6308,7 +6308,7 @@
         <v>119</v>
       </c>
       <c r="C498" s="4">
-        <v>3145</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6319,7 +6319,7 @@
         <v>120</v>
       </c>
       <c r="C499" s="4">
-        <v>2720</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6330,7 +6330,7 @@
         <v>121</v>
       </c>
       <c r="C500" s="4">
-        <v>3570</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6341,7 +6341,7 @@
         <v>122</v>
       </c>
       <c r="C501" s="4">
-        <v>2720</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6352,7 +6352,7 @@
         <v>123</v>
       </c>
       <c r="C502" s="4">
-        <v>3400</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6363,7 +6363,7 @@
         <v>124</v>
       </c>
       <c r="C503" s="4">
-        <v>5689</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6374,7 +6374,7 @@
         <v>125</v>
       </c>
       <c r="C504" s="4">
-        <v>4760</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6385,7 +6385,7 @@
         <v>126</v>
       </c>
       <c r="C505" s="4">
-        <v>5270</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6396,7 +6396,7 @@
         <v>127</v>
       </c>
       <c r="C506" s="4">
-        <v>5950</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6440,7 +6440,7 @@
         <v>119</v>
       </c>
       <c r="C510" s="4">
-        <v>8325</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6451,7 +6451,7 @@
         <v>120</v>
       </c>
       <c r="C511" s="4">
-        <v>7200</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6462,7 +6462,7 @@
         <v>121</v>
       </c>
       <c r="C512" s="4">
-        <v>9450</v>
+        <v>7546</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6473,7 +6473,7 @@
         <v>122</v>
       </c>
       <c r="C513" s="4">
-        <v>7200</v>
+        <v>5355</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6484,7 +6484,7 @@
         <v>123</v>
       </c>
       <c r="C514" s="4">
-        <v>9000</v>
+        <v>9450</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6495,7 +6495,7 @@
         <v>124</v>
       </c>
       <c r="C515" s="4">
-        <v>15060</v>
+        <v>17640</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6506,7 +6506,7 @@
         <v>125</v>
       </c>
       <c r="C516" s="4">
-        <v>12600</v>
+        <v>13275</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6517,7 +6517,7 @@
         <v>126</v>
       </c>
       <c r="C517" s="4">
-        <v>13950</v>
+        <v>15300</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6528,7 +6528,7 @@
         <v>127</v>
       </c>
       <c r="C518" s="4">
-        <v>15750</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6572,7 +6572,7 @@
         <v>119</v>
       </c>
       <c r="C522" s="4">
-        <v>44400</v>
+        <v>43148</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6583,7 +6583,7 @@
         <v>120</v>
       </c>
       <c r="C523" s="4">
-        <v>38400</v>
+        <v>17066</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6594,7 +6594,7 @@
         <v>121</v>
       </c>
       <c r="C524" s="4">
-        <v>50400</v>
+        <v>46382</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6605,7 +6605,7 @@
         <v>122</v>
       </c>
       <c r="C525" s="4">
-        <v>38400</v>
+        <v>27251</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6616,7 +6616,7 @@
         <v>123</v>
       </c>
       <c r="C526" s="4">
-        <v>48000</v>
+        <v>48090</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6627,7 +6627,7 @@
         <v>124</v>
       </c>
       <c r="C527" s="4">
-        <v>80318</v>
+        <v>41040</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6638,7 +6638,7 @@
         <v>125</v>
       </c>
       <c r="C528" s="4">
-        <v>67200</v>
+        <v>70800</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6649,7 +6649,7 @@
         <v>126</v>
       </c>
       <c r="C529" s="4">
-        <v>74400</v>
+        <v>81600</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6660,7 +6660,7 @@
         <v>127</v>
       </c>
       <c r="C530" s="4">
-        <v>84000</v>
+        <v>98400</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6704,7 +6704,7 @@
         <v>119</v>
       </c>
       <c r="C534" s="5">
-        <v>525</v>
+        <v>910</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6715,7 +6715,7 @@
         <v>120</v>
       </c>
       <c r="C535" s="5">
-        <v>700</v>
+        <v>320</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6726,7 +6726,7 @@
         <v>121</v>
       </c>
       <c r="C536" s="5">
-        <v>525</v>
+        <v>680</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6836,7 +6836,7 @@
         <v>119</v>
       </c>
       <c r="C546" s="5">
-        <v>450</v>
+        <v>540</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6847,7 +6847,7 @@
         <v>120</v>
       </c>
       <c r="C547" s="5">
-        <v>600</v>
+        <v>290</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6858,7 +6858,7 @@
         <v>121</v>
       </c>
       <c r="C548" s="5">
-        <v>450</v>
+        <v>620</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6946,7 +6946,7 @@
         <v>123</v>
       </c>
       <c r="C556" s="5">
-        <v>417</v>
+        <v>207</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6957,7 +6957,7 @@
         <v>124</v>
       </c>
       <c r="C557" s="5">
-        <v>795</v>
+        <v>450</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6967,8 +6967,8 @@
       <c r="B558" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C558" s="4">
-        <v>1135</v>
+      <c r="C558" s="5">
+        <v>450</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6978,8 +6978,8 @@
       <c r="B559" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C559" s="4">
-        <v>1184</v>
+      <c r="C559" s="5">
+        <v>450</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6989,8 +6989,8 @@
       <c r="B560" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C560" s="4">
-        <v>1272</v>
+      <c r="C560" s="5">
+        <v>450</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7034,7 +7034,7 @@
         <v>119</v>
       </c>
       <c r="C564" s="4">
-        <v>4350</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7045,7 +7045,7 @@
         <v>120</v>
       </c>
       <c r="C565" s="4">
-        <v>3770</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7056,7 +7056,7 @@
         <v>121</v>
       </c>
       <c r="C566" s="4">
-        <v>4640</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7067,7 +7067,7 @@
         <v>122</v>
       </c>
       <c r="C567" s="4">
-        <v>2320</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7078,7 +7078,7 @@
         <v>123</v>
       </c>
       <c r="C568" s="4">
-        <v>2900</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7111,7 +7111,7 @@
         <v>126</v>
       </c>
       <c r="C571" s="4">
-        <v>5075</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7122,7 +7122,7 @@
         <v>127</v>
       </c>
       <c r="C572" s="4">
-        <v>5365</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7166,7 +7166,7 @@
         <v>119</v>
       </c>
       <c r="C576" s="4">
-        <v>1950</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7176,8 +7176,8 @@
       <c r="B577" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C577" s="4">
-        <v>1690</v>
+      <c r="C577" s="5">
+        <v>360</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7187,8 +7187,8 @@
       <c r="B578" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C578" s="4">
-        <v>2080</v>
+      <c r="C578" s="5">
+        <v>522</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7198,8 +7198,8 @@
       <c r="B579" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C579" s="4">
-        <v>1040</v>
+      <c r="C579" s="5">
+        <v>975</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7210,7 +7210,7 @@
         <v>123</v>
       </c>
       <c r="C580" s="4">
-        <v>1300</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="581" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7243,7 +7243,7 @@
         <v>126</v>
       </c>
       <c r="C583" s="4">
-        <v>2275</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7254,7 +7254,7 @@
         <v>127</v>
       </c>
       <c r="C584" s="4">
-        <v>2405</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7298,7 +7298,7 @@
         <v>119</v>
       </c>
       <c r="C588" s="4">
-        <v>1350</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7309,7 +7309,7 @@
         <v>120</v>
       </c>
       <c r="C589" s="4">
-        <v>1170</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7319,8 +7319,8 @@
       <c r="B590" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C590" s="4">
-        <v>1440</v>
+      <c r="C590" s="5">
+        <v>810</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7331,7 +7331,7 @@
         <v>122</v>
       </c>
       <c r="C591" s="5">
-        <v>720</v>
+        <v>675</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7342,7 +7342,7 @@
         <v>123</v>
       </c>
       <c r="C592" s="5">
-        <v>900</v>
+        <v>720</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7375,7 +7375,7 @@
         <v>126</v>
       </c>
       <c r="C595" s="4">
-        <v>1575</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7386,7 +7386,7 @@
         <v>127</v>
       </c>
       <c r="C596" s="4">
-        <v>1665</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7430,7 +7430,7 @@
         <v>119</v>
       </c>
       <c r="C600" s="4">
-        <v>1350</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7440,8 +7440,8 @@
       <c r="B601" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C601" s="4">
-        <v>1170</v>
+      <c r="C601" s="5">
+        <v>414</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7452,7 +7452,7 @@
         <v>121</v>
       </c>
       <c r="C602" s="4">
-        <v>1440</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7463,7 +7463,7 @@
         <v>122</v>
       </c>
       <c r="C603" s="5">
-        <v>720</v>
+        <v>675</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7474,7 +7474,7 @@
         <v>123</v>
       </c>
       <c r="C604" s="5">
-        <v>900</v>
+        <v>720</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7507,7 +7507,7 @@
         <v>126</v>
       </c>
       <c r="C607" s="4">
-        <v>1575</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7518,7 +7518,7 @@
         <v>127</v>
       </c>
       <c r="C608" s="4">
-        <v>1665</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7562,7 +7562,7 @@
         <v>119</v>
       </c>
       <c r="C612" s="4">
-        <v>1950</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7573,7 +7573,7 @@
         <v>120</v>
       </c>
       <c r="C613" s="4">
-        <v>1690</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7583,8 +7583,8 @@
       <c r="B614" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C614" s="4">
-        <v>2080</v>
+      <c r="C614" s="5">
+        <v>846</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7594,8 +7594,8 @@
       <c r="B615" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C615" s="4">
-        <v>1040</v>
+      <c r="C615" s="5">
+        <v>975</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7606,7 +7606,7 @@
         <v>123</v>
       </c>
       <c r="C616" s="4">
-        <v>1300</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7639,7 +7639,7 @@
         <v>126</v>
       </c>
       <c r="C619" s="4">
-        <v>2275</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7650,7 +7650,7 @@
         <v>127</v>
       </c>
       <c r="C620" s="4">
-        <v>2405</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7693,8 +7693,8 @@
       <c r="B624" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C624" s="4">
-        <v>1350</v>
+      <c r="C624" s="5">
+        <v>558</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7704,8 +7704,8 @@
       <c r="B625" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C625" s="4">
-        <v>1170</v>
+      <c r="C625" s="5">
+        <v>486</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7715,8 +7715,8 @@
       <c r="B626" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C626" s="4">
-        <v>1440</v>
+      <c r="C626" s="5">
+        <v>252</v>
       </c>
     </row>
     <row r="627" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7727,7 +7727,7 @@
         <v>122</v>
       </c>
       <c r="C627" s="5">
-        <v>720</v>
+        <v>675</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7738,7 +7738,7 @@
         <v>123</v>
       </c>
       <c r="C628" s="5">
-        <v>900</v>
+        <v>720</v>
       </c>
     </row>
     <row r="629" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7771,7 +7771,7 @@
         <v>126</v>
       </c>
       <c r="C631" s="4">
-        <v>1575</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7782,7 +7782,7 @@
         <v>127</v>
       </c>
       <c r="C632" s="4">
-        <v>1665</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="633" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7826,7 +7826,7 @@
         <v>119</v>
       </c>
       <c r="C636" s="4">
-        <v>2700</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="637" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7837,7 +7837,7 @@
         <v>120</v>
       </c>
       <c r="C637" s="4">
-        <v>2340</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="638" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7848,7 +7848,7 @@
         <v>121</v>
       </c>
       <c r="C638" s="4">
-        <v>2880</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="639" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7859,7 +7859,7 @@
         <v>122</v>
       </c>
       <c r="C639" s="4">
-        <v>1440</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="640" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7870,7 +7870,7 @@
         <v>123</v>
       </c>
       <c r="C640" s="4">
-        <v>1800</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="641" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7903,7 +7903,7 @@
         <v>126</v>
       </c>
       <c r="C643" s="4">
-        <v>3150</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="644" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7914,7 +7914,7 @@
         <v>127</v>
       </c>
       <c r="C644" s="4">
-        <v>3330</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="645" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7958,7 +7958,7 @@
         <v>119</v>
       </c>
       <c r="C648" s="4">
-        <v>1295</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="649" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7969,7 +7969,7 @@
         <v>120</v>
       </c>
       <c r="C649" s="4">
-        <v>1120</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="650" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7980,7 +7980,7 @@
         <v>121</v>
       </c>
       <c r="C650" s="4">
-        <v>1470</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="651" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7991,7 +7991,7 @@
         <v>122</v>
       </c>
       <c r="C651" s="4">
-        <v>1120</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="652" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8002,7 +8002,7 @@
         <v>123</v>
       </c>
       <c r="C652" s="4">
-        <v>1400</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="653" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8013,7 +8013,7 @@
         <v>124</v>
       </c>
       <c r="C653" s="4">
-        <v>2343</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="654" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8024,7 +8024,7 @@
         <v>125</v>
       </c>
       <c r="C654" s="4">
-        <v>1960</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="655" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8035,7 +8035,7 @@
         <v>126</v>
       </c>
       <c r="C655" s="4">
-        <v>2170</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="656" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8046,7 +8046,7 @@
         <v>127</v>
       </c>
       <c r="C656" s="4">
-        <v>2450</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="657" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8090,7 +8090,7 @@
         <v>119</v>
       </c>
       <c r="C660" s="4">
-        <v>1110</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="661" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8100,8 +8100,8 @@
       <c r="B661" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C661" s="5">
-        <v>960</v>
+      <c r="C661" s="4">
+        <v>1116</v>
       </c>
     </row>
     <row r="662" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8112,7 +8112,7 @@
         <v>121</v>
       </c>
       <c r="C662" s="4">
-        <v>1260</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="663" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8122,8 +8122,8 @@
       <c r="B663" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C663" s="5">
-        <v>960</v>
+      <c r="C663" s="4">
+        <v>1190</v>
       </c>
     </row>
     <row r="664" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8134,7 +8134,7 @@
         <v>123</v>
       </c>
       <c r="C664" s="4">
-        <v>1200</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="665" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8145,7 +8145,7 @@
         <v>124</v>
       </c>
       <c r="C665" s="4">
-        <v>2008</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="666" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8156,7 +8156,7 @@
         <v>125</v>
       </c>
       <c r="C666" s="4">
-        <v>1680</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="667" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8167,7 +8167,7 @@
         <v>126</v>
       </c>
       <c r="C667" s="4">
-        <v>1860</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="668" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8178,7 +8178,7 @@
         <v>127</v>
       </c>
       <c r="C668" s="4">
-        <v>2100</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="669" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8222,7 +8222,7 @@
         <v>119</v>
       </c>
       <c r="C672" s="4">
-        <v>1480</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="673" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8232,8 +8232,8 @@
       <c r="B673" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C673" s="4">
-        <v>1280</v>
+      <c r="C673" s="5">
+        <v>846</v>
       </c>
     </row>
     <row r="674" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8244,7 +8244,7 @@
         <v>121</v>
       </c>
       <c r="C674" s="4">
-        <v>1680</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="675" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8255,7 +8255,7 @@
         <v>122</v>
       </c>
       <c r="C675" s="4">
-        <v>1280</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="676" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8266,7 +8266,7 @@
         <v>123</v>
       </c>
       <c r="C676" s="4">
-        <v>1600</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="677" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8277,7 +8277,7 @@
         <v>124</v>
       </c>
       <c r="C677" s="4">
-        <v>2677</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="678" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8288,7 +8288,7 @@
         <v>125</v>
       </c>
       <c r="C678" s="4">
-        <v>2240</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="679" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8299,7 +8299,7 @@
         <v>126</v>
       </c>
       <c r="C679" s="4">
-        <v>2480</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="680" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8310,7 +8310,7 @@
         <v>127</v>
       </c>
       <c r="C680" s="4">
-        <v>2800</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="681" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8354,7 +8354,7 @@
         <v>119</v>
       </c>
       <c r="C684" s="4">
-        <v>3700</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="685" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8365,7 +8365,7 @@
         <v>120</v>
       </c>
       <c r="C685" s="4">
-        <v>3200</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="686" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8376,7 +8376,7 @@
         <v>121</v>
       </c>
       <c r="C686" s="4">
-        <v>4200</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="687" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8387,7 +8387,7 @@
         <v>122</v>
       </c>
       <c r="C687" s="4">
-        <v>3200</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="688" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8398,7 +8398,7 @@
         <v>123</v>
       </c>
       <c r="C688" s="4">
-        <v>4000</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="689" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8409,7 +8409,7 @@
         <v>124</v>
       </c>
       <c r="C689" s="4">
-        <v>6693</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="690" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8420,7 +8420,7 @@
         <v>125</v>
       </c>
       <c r="C690" s="4">
-        <v>5600</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="691" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8431,7 +8431,7 @@
         <v>126</v>
       </c>
       <c r="C691" s="4">
-        <v>6200</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="692" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8442,7 +8442,7 @@
         <v>127</v>
       </c>
       <c r="C692" s="4">
-        <v>7000</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="693" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8486,7 +8486,7 @@
         <v>119</v>
       </c>
       <c r="C696" s="4">
-        <v>29230</v>
+        <v>43182</v>
       </c>
     </row>
     <row r="697" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8497,7 +8497,7 @@
         <v>120</v>
       </c>
       <c r="C697" s="4">
-        <v>25280</v>
+        <v>21114</v>
       </c>
     </row>
     <row r="698" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8508,7 +8508,7 @@
         <v>121</v>
       </c>
       <c r="C698" s="4">
-        <v>33180</v>
+        <v>35694</v>
       </c>
     </row>
     <row r="699" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8519,7 +8519,7 @@
         <v>122</v>
       </c>
       <c r="C699" s="4">
-        <v>25280</v>
+        <v>25585</v>
       </c>
     </row>
     <row r="700" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8530,7 +8530,7 @@
         <v>123</v>
       </c>
       <c r="C700" s="4">
-        <v>31600</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="701" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8541,7 +8541,7 @@
         <v>124</v>
       </c>
       <c r="C701" s="4">
-        <v>52876</v>
+        <v>61200</v>
       </c>
     </row>
     <row r="702" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8552,7 +8552,7 @@
         <v>125</v>
       </c>
       <c r="C702" s="4">
-        <v>44240</v>
+        <v>46610</v>
       </c>
     </row>
     <row r="703" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8563,7 +8563,7 @@
         <v>126</v>
       </c>
       <c r="C703" s="4">
-        <v>48980</v>
+        <v>53720</v>
       </c>
     </row>
     <row r="704" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8574,7 +8574,7 @@
         <v>127</v>
       </c>
       <c r="C704" s="4">
-        <v>55300</v>
+        <v>64780</v>
       </c>
     </row>
     <row r="705" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8618,7 +8618,7 @@
         <v>119</v>
       </c>
       <c r="C708" s="4">
-        <v>8140</v>
+        <v>11502</v>
       </c>
     </row>
     <row r="709" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8629,7 +8629,7 @@
         <v>120</v>
       </c>
       <c r="C709" s="4">
-        <v>7040</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="710" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8640,7 +8640,7 @@
         <v>121</v>
       </c>
       <c r="C710" s="4">
-        <v>9240</v>
+        <v>9828</v>
       </c>
     </row>
     <row r="711" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8651,7 +8651,7 @@
         <v>122</v>
       </c>
       <c r="C711" s="4">
-        <v>7040</v>
+        <v>6902</v>
       </c>
     </row>
     <row r="712" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8662,7 +8662,7 @@
         <v>123</v>
       </c>
       <c r="C712" s="4">
-        <v>8800</v>
+        <v>12180</v>
       </c>
     </row>
     <row r="713" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8673,7 +8673,7 @@
         <v>124</v>
       </c>
       <c r="C713" s="4">
-        <v>14725</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="714" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8684,7 +8684,7 @@
         <v>125</v>
       </c>
       <c r="C714" s="4">
-        <v>12320</v>
+        <v>12980</v>
       </c>
     </row>
     <row r="715" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8695,7 +8695,7 @@
         <v>126</v>
       </c>
       <c r="C715" s="4">
-        <v>13640</v>
+        <v>14960</v>
       </c>
     </row>
     <row r="716" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8706,7 +8706,7 @@
         <v>127</v>
       </c>
       <c r="C716" s="4">
-        <v>15400</v>
+        <v>18040</v>
       </c>
     </row>
     <row r="717" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8750,7 +8750,7 @@
         <v>119</v>
       </c>
       <c r="C720" s="4">
-        <v>6105</v>
+        <v>6534</v>
       </c>
     </row>
     <row r="721" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8761,7 +8761,7 @@
         <v>120</v>
       </c>
       <c r="C721" s="4">
-        <v>5280</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="722" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8772,7 +8772,7 @@
         <v>121</v>
       </c>
       <c r="C722" s="4">
-        <v>6930</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="723" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8783,7 +8783,7 @@
         <v>122</v>
       </c>
       <c r="C723" s="4">
-        <v>5280</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="724" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8794,7 +8794,7 @@
         <v>123</v>
       </c>
       <c r="C724" s="4">
-        <v>6600</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="725" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8805,7 +8805,7 @@
         <v>124</v>
       </c>
       <c r="C725" s="4">
-        <v>11044</v>
+        <v>11160</v>
       </c>
     </row>
     <row r="726" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8816,7 +8816,7 @@
         <v>125</v>
       </c>
       <c r="C726" s="4">
-        <v>9240</v>
+        <v>9735</v>
       </c>
     </row>
     <row r="727" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8827,7 +8827,7 @@
         <v>126</v>
       </c>
       <c r="C727" s="4">
-        <v>10230</v>
+        <v>11220</v>
       </c>
     </row>
     <row r="728" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8838,7 +8838,7 @@
         <v>127</v>
       </c>
       <c r="C728" s="4">
-        <v>11550</v>
+        <v>13530</v>
       </c>
     </row>
     <row r="729" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8882,7 +8882,7 @@
         <v>119</v>
       </c>
       <c r="C732" s="4">
-        <v>2667</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="733" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8892,8 +8892,8 @@
       <c r="B733" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C733" s="4">
-        <v>1753</v>
+      <c r="C733" s="5">
+        <v>880</v>
       </c>
     </row>
     <row r="734" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8903,8 +8903,8 @@
       <c r="B734" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C734" s="4">
-        <v>1608</v>
+      <c r="C734" s="5">
+        <v>740</v>
       </c>
     </row>
     <row r="735" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8914,8 +8914,8 @@
       <c r="B735" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C735" s="4">
-        <v>1432</v>
+      <c r="C735" s="5">
+        <v>810</v>
       </c>
     </row>
     <row r="736" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8926,7 +8926,7 @@
         <v>123</v>
       </c>
       <c r="C736" s="4">
-        <v>1502</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="737" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8937,7 +8937,7 @@
         <v>124</v>
       </c>
       <c r="C737" s="4">
-        <v>3497</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="738" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8948,7 +8948,7 @@
         <v>125</v>
       </c>
       <c r="C738" s="4">
-        <v>4993</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="739" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8959,7 +8959,7 @@
         <v>126</v>
       </c>
       <c r="C739" s="4">
-        <v>5210</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="740" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8970,7 +8970,7 @@
         <v>127</v>
       </c>
       <c r="C740" s="4">
-        <v>5595</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="741" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9014,7 +9014,7 @@
         <v>119</v>
       </c>
       <c r="C744" s="4">
-        <v>1333</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="745" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9024,8 +9024,8 @@
       <c r="B745" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C745" s="4">
-        <v>1052</v>
+      <c r="C745" s="5">
+        <v>430</v>
       </c>
     </row>
     <row r="746" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9036,7 +9036,7 @@
         <v>121</v>
       </c>
       <c r="C746" s="5">
-        <v>965</v>
+        <v>800</v>
       </c>
     </row>
     <row r="747" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9047,7 +9047,7 @@
         <v>122</v>
       </c>
       <c r="C747" s="5">
-        <v>859</v>
+        <v>720</v>
       </c>
     </row>
     <row r="748" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9058,7 +9058,7 @@
         <v>123</v>
       </c>
       <c r="C748" s="4">
-        <v>1002</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="749" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9069,7 +9069,7 @@
         <v>124</v>
       </c>
       <c r="C749" s="4">
-        <v>1908</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="750" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9080,7 +9080,7 @@
         <v>125</v>
       </c>
       <c r="C750" s="4">
-        <v>2724</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="751" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9091,7 +9091,7 @@
         <v>126</v>
       </c>
       <c r="C751" s="4">
-        <v>2842</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="752" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9102,7 +9102,7 @@
         <v>127</v>
       </c>
       <c r="C752" s="4">
-        <v>3052</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="753" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9146,7 +9146,7 @@
         <v>119</v>
       </c>
       <c r="C756" s="4">
-        <v>2667</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="757" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9156,8 +9156,8 @@
       <c r="B757" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C757" s="4">
-        <v>1753</v>
+      <c r="C757" s="5">
+        <v>420</v>
       </c>
     </row>
     <row r="758" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9167,8 +9167,8 @@
       <c r="B758" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C758" s="4">
-        <v>1608</v>
+      <c r="C758" s="5">
+        <v>640</v>
       </c>
     </row>
     <row r="759" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9178,8 +9178,8 @@
       <c r="B759" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C759" s="4">
-        <v>1431</v>
+      <c r="C759" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="760" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9190,7 +9190,7 @@
         <v>123</v>
       </c>
       <c r="C760" s="4">
-        <v>1669</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="761" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9201,7 +9201,7 @@
         <v>124</v>
       </c>
       <c r="C761" s="4">
-        <v>3497</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="762" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9212,7 +9212,7 @@
         <v>125</v>
       </c>
       <c r="C762" s="4">
-        <v>4993</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="763" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9223,7 +9223,7 @@
         <v>126</v>
       </c>
       <c r="C763" s="4">
-        <v>5210</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="764" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9234,7 +9234,7 @@
         <v>127</v>
       </c>
       <c r="C764" s="4">
-        <v>5595</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="765" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9278,7 +9278,7 @@
         <v>119</v>
       </c>
       <c r="C768" s="4">
-        <v>4445</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="769" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9288,8 +9288,8 @@
       <c r="B769" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C769" s="4">
-        <v>4206</v>
+      <c r="C769" s="5">
+        <v>410</v>
       </c>
     </row>
     <row r="770" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9300,7 +9300,7 @@
         <v>121</v>
       </c>
       <c r="C770" s="4">
-        <v>3858</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="771" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9311,7 +9311,7 @@
         <v>122</v>
       </c>
       <c r="C771" s="4">
-        <v>3435</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="772" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9322,7 +9322,7 @@
         <v>123</v>
       </c>
       <c r="C772" s="4">
-        <v>3756</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="773" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9333,7 +9333,7 @@
         <v>124</v>
       </c>
       <c r="C773" s="4">
-        <v>6199</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="774" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9344,7 +9344,7 @@
         <v>125</v>
       </c>
       <c r="C774" s="4">
-        <v>8852</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="775" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9355,7 +9355,7 @@
         <v>126</v>
       </c>
       <c r="C775" s="4">
-        <v>9236</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="776" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9366,7 +9366,7 @@
         <v>127</v>
       </c>
       <c r="C776" s="4">
-        <v>9919</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="777" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9410,7 +9410,7 @@
         <v>119</v>
       </c>
       <c r="C780" s="4">
-        <v>10545</v>
+        <v>13320</v>
       </c>
     </row>
     <row r="781" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9421,7 +9421,7 @@
         <v>120</v>
       </c>
       <c r="C781" s="4">
-        <v>9120</v>
+        <v>12204</v>
       </c>
     </row>
     <row r="782" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9432,7 +9432,7 @@
         <v>121</v>
       </c>
       <c r="C782" s="4">
-        <v>11970</v>
+        <v>14130</v>
       </c>
     </row>
     <row r="783" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9443,7 +9443,7 @@
         <v>122</v>
       </c>
       <c r="C783" s="4">
-        <v>9120</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="784" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9454,7 +9454,7 @@
         <v>123</v>
       </c>
       <c r="C784" s="4">
-        <v>11400</v>
+        <v>17850</v>
       </c>
     </row>
     <row r="785" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9465,7 +9465,7 @@
         <v>124</v>
       </c>
       <c r="C785" s="4">
-        <v>19076</v>
+        <v>23760</v>
       </c>
     </row>
     <row r="786" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9476,7 +9476,7 @@
         <v>125</v>
       </c>
       <c r="C786" s="4">
-        <v>15960</v>
+        <v>16815</v>
       </c>
     </row>
     <row r="787" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9487,7 +9487,7 @@
         <v>126</v>
       </c>
       <c r="C787" s="4">
-        <v>17670</v>
+        <v>19380</v>
       </c>
     </row>
     <row r="788" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9498,7 +9498,7 @@
         <v>127</v>
       </c>
       <c r="C788" s="4">
-        <v>19950</v>
+        <v>23370</v>
       </c>
     </row>
     <row r="789" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9542,7 +9542,7 @@
         <v>119</v>
       </c>
       <c r="C792" s="4">
-        <v>8510</v>
+        <v>10044</v>
       </c>
     </row>
     <row r="793" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9553,7 +9553,7 @@
         <v>120</v>
       </c>
       <c r="C793" s="4">
-        <v>7360</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="794" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="C794" s="4">
-        <v>9660</v>
+        <v>8118</v>
       </c>
     </row>
     <row r="795" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9575,7 +9575,7 @@
         <v>122</v>
       </c>
       <c r="C795" s="4">
-        <v>7360</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="796" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9586,7 +9586,7 @@
         <v>123</v>
       </c>
       <c r="C796" s="4">
-        <v>9200</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="797" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9597,7 +9597,7 @@
         <v>124</v>
       </c>
       <c r="C797" s="4">
-        <v>15394</v>
+        <v>17280</v>
       </c>
     </row>
     <row r="798" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9608,7 +9608,7 @@
         <v>125</v>
       </c>
       <c r="C798" s="4">
-        <v>12880</v>
+        <v>13570</v>
       </c>
     </row>
     <row r="799" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9619,7 +9619,7 @@
         <v>126</v>
       </c>
       <c r="C799" s="4">
-        <v>14260</v>
+        <v>15640</v>
       </c>
     </row>
     <row r="800" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9630,7 +9630,7 @@
         <v>127</v>
       </c>
       <c r="C800" s="4">
-        <v>16100</v>
+        <v>18860</v>
       </c>
     </row>
     <row r="801" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9674,7 +9674,7 @@
         <v>119</v>
       </c>
       <c r="C804" s="4">
-        <v>13875</v>
+        <v>14274</v>
       </c>
     </row>
     <row r="805" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9685,7 +9685,7 @@
         <v>120</v>
       </c>
       <c r="C805" s="4">
-        <v>12000</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="806" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9696,7 +9696,7 @@
         <v>121</v>
       </c>
       <c r="C806" s="4">
-        <v>15750</v>
+        <v>16794</v>
       </c>
     </row>
     <row r="807" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9707,7 +9707,7 @@
         <v>122</v>
       </c>
       <c r="C807" s="4">
-        <v>12000</v>
+        <v>9401</v>
       </c>
     </row>
     <row r="808" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9718,7 +9718,7 @@
         <v>123</v>
       </c>
       <c r="C808" s="4">
-        <v>15000</v>
+        <v>16590</v>
       </c>
     </row>
     <row r="809" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9729,7 +9729,7 @@
         <v>124</v>
       </c>
       <c r="C809" s="4">
-        <v>25099</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="810" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9740,7 +9740,7 @@
         <v>125</v>
       </c>
       <c r="C810" s="4">
-        <v>21000</v>
+        <v>22125</v>
       </c>
     </row>
     <row r="811" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9751,7 +9751,7 @@
         <v>126</v>
       </c>
       <c r="C811" s="4">
-        <v>23250</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="812" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9762,7 +9762,7 @@
         <v>127</v>
       </c>
       <c r="C812" s="4">
-        <v>26250</v>
+        <v>30750</v>
       </c>
     </row>
     <row r="813" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9806,7 +9806,7 @@
         <v>119</v>
       </c>
       <c r="C816" s="4">
-        <v>1295</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="817" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9817,7 +9817,7 @@
         <v>120</v>
       </c>
       <c r="C817" s="4">
-        <v>1120</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="818" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9828,7 +9828,7 @@
         <v>121</v>
       </c>
       <c r="C818" s="4">
-        <v>1470</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="819" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9838,8 +9838,8 @@
       <c r="B819" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C819" s="4">
-        <v>1120</v>
+      <c r="C819" s="5">
+        <v>952</v>
       </c>
     </row>
     <row r="820" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9850,7 +9850,7 @@
         <v>123</v>
       </c>
       <c r="C820" s="4">
-        <v>1400</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="821" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9861,7 +9861,7 @@
         <v>124</v>
       </c>
       <c r="C821" s="4">
-        <v>2343</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="822" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9872,7 +9872,7 @@
         <v>125</v>
       </c>
       <c r="C822" s="4">
-        <v>1960</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="823" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9883,7 +9883,7 @@
         <v>126</v>
       </c>
       <c r="C823" s="4">
-        <v>2170</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="824" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9894,7 +9894,7 @@
         <v>127</v>
       </c>
       <c r="C824" s="4">
-        <v>2450</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="825" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9938,7 +9938,7 @@
         <v>119</v>
       </c>
       <c r="C828" s="4">
-        <v>23125</v>
+        <v>31194</v>
       </c>
     </row>
     <row r="829" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9949,7 +9949,7 @@
         <v>120</v>
       </c>
       <c r="C829" s="4">
-        <v>20000</v>
+        <v>8964</v>
       </c>
     </row>
     <row r="830" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9960,7 +9960,7 @@
         <v>121</v>
       </c>
       <c r="C830" s="4">
-        <v>26250</v>
+        <v>29178</v>
       </c>
     </row>
     <row r="831" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9971,7 +9971,7 @@
         <v>122</v>
       </c>
       <c r="C831" s="4">
-        <v>20000</v>
+        <v>17731</v>
       </c>
     </row>
     <row r="832" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9982,7 +9982,7 @@
         <v>123</v>
       </c>
       <c r="C832" s="4">
-        <v>25000</v>
+        <v>31290</v>
       </c>
     </row>
     <row r="833" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9993,7 +9993,7 @@
         <v>124</v>
       </c>
       <c r="C833" s="4">
-        <v>41832</v>
+        <v>43920</v>
       </c>
     </row>
     <row r="834" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10004,7 +10004,7 @@
         <v>125</v>
       </c>
       <c r="C834" s="4">
-        <v>35000</v>
+        <v>36875</v>
       </c>
     </row>
     <row r="835" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10015,7 +10015,7 @@
         <v>126</v>
       </c>
       <c r="C835" s="4">
-        <v>38750</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="836" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10026,7 +10026,7 @@
         <v>127</v>
       </c>
       <c r="C836" s="4">
-        <v>43750</v>
+        <v>51250</v>
       </c>
     </row>
     <row r="837" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10070,7 +10070,7 @@
         <v>119</v>
       </c>
       <c r="C840" s="4">
-        <v>4625</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="841" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10081,7 +10081,7 @@
         <v>120</v>
       </c>
       <c r="C841" s="4">
-        <v>4000</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="842" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10092,7 +10092,7 @@
         <v>121</v>
       </c>
       <c r="C842" s="4">
-        <v>5250</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="843" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10103,7 +10103,7 @@
         <v>122</v>
       </c>
       <c r="C843" s="4">
-        <v>4000</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="844" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10114,7 +10114,7 @@
         <v>123</v>
       </c>
       <c r="C844" s="4">
-        <v>5000</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="845" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10125,7 +10125,7 @@
         <v>124</v>
       </c>
       <c r="C845" s="4">
-        <v>8366</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="846" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10136,7 +10136,7 @@
         <v>125</v>
       </c>
       <c r="C846" s="4">
-        <v>7000</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="847" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10147,7 +10147,7 @@
         <v>126</v>
       </c>
       <c r="C847" s="4">
-        <v>7750</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="848" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10158,7 +10158,7 @@
         <v>127</v>
       </c>
       <c r="C848" s="4">
-        <v>8750</v>
+        <v>10250</v>
       </c>
     </row>
     <row r="849" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10202,7 +10202,7 @@
         <v>119</v>
       </c>
       <c r="C852" s="4">
-        <v>7770</v>
+        <v>9340</v>
       </c>
     </row>
     <row r="853" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10213,7 +10213,7 @@
         <v>120</v>
       </c>
       <c r="C853" s="4">
-        <v>6720</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="854" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10224,7 +10224,7 @@
         <v>121</v>
       </c>
       <c r="C854" s="4">
-        <v>8820</v>
+        <v>7524</v>
       </c>
     </row>
     <row r="855" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10235,7 +10235,7 @@
         <v>122</v>
       </c>
       <c r="C855" s="4">
-        <v>6720</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="856" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10246,7 +10246,7 @@
         <v>123</v>
       </c>
       <c r="C856" s="4">
-        <v>8400</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="857" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10257,7 +10257,7 @@
         <v>124</v>
       </c>
       <c r="C857" s="4">
-        <v>14056</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="858" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10268,7 +10268,7 @@
         <v>125</v>
       </c>
       <c r="C858" s="4">
-        <v>11760</v>
+        <v>12390</v>
       </c>
     </row>
     <row r="859" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10279,7 +10279,7 @@
         <v>126</v>
       </c>
       <c r="C859" s="4">
-        <v>13020</v>
+        <v>14280</v>
       </c>
     </row>
     <row r="860" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10290,7 +10290,7 @@
         <v>127</v>
       </c>
       <c r="C860" s="4">
-        <v>14700</v>
+        <v>17220</v>
       </c>
     </row>
     <row r="861" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10334,7 +10334,7 @@
         <v>119</v>
       </c>
       <c r="C864" s="4">
-        <v>2035</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="865" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10345,7 +10345,7 @@
         <v>120</v>
       </c>
       <c r="C865" s="4">
-        <v>1760</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="866" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10356,7 +10356,7 @@
         <v>121</v>
       </c>
       <c r="C866" s="4">
-        <v>2310</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="867" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10367,7 +10367,7 @@
         <v>122</v>
       </c>
       <c r="C867" s="4">
-        <v>1760</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="868" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10378,7 +10378,7 @@
         <v>123</v>
       </c>
       <c r="C868" s="4">
-        <v>2200</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="869" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10389,7 +10389,7 @@
         <v>124</v>
       </c>
       <c r="C869" s="4">
-        <v>3681</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="870" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10400,7 +10400,7 @@
         <v>125</v>
       </c>
       <c r="C870" s="4">
-        <v>3080</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="871" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10411,7 +10411,7 @@
         <v>126</v>
       </c>
       <c r="C871" s="4">
-        <v>3410</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="872" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10422,7 +10422,7 @@
         <v>127</v>
       </c>
       <c r="C872" s="4">
-        <v>3850</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="873" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10466,7 +10466,7 @@
         <v>119</v>
       </c>
       <c r="C876" s="4">
-        <v>16835</v>
+        <v>10944</v>
       </c>
     </row>
     <row r="877" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10477,7 +10477,7 @@
         <v>120</v>
       </c>
       <c r="C877" s="4">
-        <v>14560</v>
+        <v>6732</v>
       </c>
     </row>
     <row r="878" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10488,7 +10488,7 @@
         <v>121</v>
       </c>
       <c r="C878" s="4">
-        <v>19110</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="879" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10499,7 +10499,7 @@
         <v>122</v>
       </c>
       <c r="C879" s="4">
-        <v>14560</v>
+        <v>6545</v>
       </c>
     </row>
     <row r="880" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10510,7 +10510,7 @@
         <v>123</v>
       </c>
       <c r="C880" s="4">
-        <v>18200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="881" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10521,7 +10521,7 @@
         <v>124</v>
       </c>
       <c r="C881" s="4">
-        <v>30454</v>
+        <v>40320</v>
       </c>
     </row>
     <row r="882" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10532,7 +10532,7 @@
         <v>125</v>
       </c>
       <c r="C882" s="4">
-        <v>25480</v>
+        <v>26845</v>
       </c>
     </row>
     <row r="883" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10543,7 +10543,7 @@
         <v>126</v>
       </c>
       <c r="C883" s="4">
-        <v>28210</v>
+        <v>30940</v>
       </c>
     </row>
     <row r="884" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10554,7 +10554,7 @@
         <v>127</v>
       </c>
       <c r="C884" s="4">
-        <v>31850</v>
+        <v>37310</v>
       </c>
     </row>
     <row r="885" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10598,7 +10598,7 @@
         <v>119</v>
       </c>
       <c r="C888" s="4">
-        <v>15540</v>
+        <v>16092</v>
       </c>
     </row>
     <row r="889" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10609,7 +10609,7 @@
         <v>120</v>
       </c>
       <c r="C889" s="4">
-        <v>13440</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="890" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10620,7 +10620,7 @@
         <v>121</v>
       </c>
       <c r="C890" s="4">
-        <v>17640</v>
+        <v>13068</v>
       </c>
     </row>
     <row r="891" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10631,7 +10631,7 @@
         <v>122</v>
       </c>
       <c r="C891" s="4">
-        <v>13440</v>
+        <v>8806</v>
       </c>
     </row>
     <row r="892" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10642,7 +10642,7 @@
         <v>123</v>
       </c>
       <c r="C892" s="4">
-        <v>16800</v>
+        <v>15540</v>
       </c>
     </row>
     <row r="893" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10653,7 +10653,7 @@
         <v>124</v>
       </c>
       <c r="C893" s="4">
-        <v>28111</v>
+        <v>32040</v>
       </c>
     </row>
     <row r="894" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10664,7 +10664,7 @@
         <v>125</v>
       </c>
       <c r="C894" s="4">
-        <v>23520</v>
+        <v>24780</v>
       </c>
     </row>
     <row r="895" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10675,7 +10675,7 @@
         <v>126</v>
       </c>
       <c r="C895" s="4">
-        <v>26040</v>
+        <v>28560</v>
       </c>
     </row>
     <row r="896" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10686,7 +10686,7 @@
         <v>127</v>
       </c>
       <c r="C896" s="4">
-        <v>29400</v>
+        <v>34440</v>
       </c>
     </row>
     <row r="897" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10730,7 +10730,7 @@
         <v>119</v>
       </c>
       <c r="C900" s="4">
-        <v>24420</v>
+        <v>29628</v>
       </c>
     </row>
     <row r="901" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10741,7 +10741,7 @@
         <v>120</v>
       </c>
       <c r="C901" s="4">
-        <v>21120</v>
+        <v>8604</v>
       </c>
     </row>
     <row r="902" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10752,7 +10752,7 @@
         <v>121</v>
       </c>
       <c r="C902" s="4">
-        <v>27720</v>
+        <v>22626</v>
       </c>
     </row>
     <row r="903" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10763,7 +10763,7 @@
         <v>122</v>
       </c>
       <c r="C903" s="4">
-        <v>21120</v>
+        <v>15589</v>
       </c>
     </row>
     <row r="904" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10774,7 +10774,7 @@
         <v>123</v>
       </c>
       <c r="C904" s="4">
-        <v>26400</v>
+        <v>27510</v>
       </c>
     </row>
     <row r="905" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10785,7 +10785,7 @@
         <v>124</v>
       </c>
       <c r="C905" s="4">
-        <v>44175</v>
+        <v>50040</v>
       </c>
     </row>
     <row r="906" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10796,7 +10796,7 @@
         <v>125</v>
       </c>
       <c r="C906" s="4">
-        <v>36960</v>
+        <v>38940</v>
       </c>
     </row>
     <row r="907" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10807,7 +10807,7 @@
         <v>126</v>
       </c>
       <c r="C907" s="4">
-        <v>40920</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="908" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10818,7 +10818,7 @@
         <v>127</v>
       </c>
       <c r="C908" s="4">
-        <v>46200</v>
+        <v>54120</v>
       </c>
     </row>
     <row r="909" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10862,7 +10862,7 @@
         <v>119</v>
       </c>
       <c r="C912" s="4">
-        <v>21275</v>
+        <v>22626</v>
       </c>
     </row>
     <row r="913" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10873,7 +10873,7 @@
         <v>120</v>
       </c>
       <c r="C913" s="4">
-        <v>18400</v>
+        <v>13230</v>
       </c>
     </row>
     <row r="914" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10884,7 +10884,7 @@
         <v>121</v>
       </c>
       <c r="C914" s="4">
-        <v>24150</v>
+        <v>16002</v>
       </c>
     </row>
     <row r="915" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10895,7 +10895,7 @@
         <v>122</v>
       </c>
       <c r="C915" s="4">
-        <v>18400</v>
+        <v>13328</v>
       </c>
     </row>
     <row r="916" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10906,7 +10906,7 @@
         <v>123</v>
       </c>
       <c r="C916" s="4">
-        <v>23000</v>
+        <v>23520</v>
       </c>
     </row>
     <row r="917" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10917,7 +10917,7 @@
         <v>124</v>
       </c>
       <c r="C917" s="4">
-        <v>38486</v>
+        <v>41760</v>
       </c>
     </row>
     <row r="918" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10928,7 +10928,7 @@
         <v>125</v>
       </c>
       <c r="C918" s="4">
-        <v>32200</v>
+        <v>33925</v>
       </c>
     </row>
     <row r="919" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10939,7 +10939,7 @@
         <v>126</v>
       </c>
       <c r="C919" s="4">
-        <v>35650</v>
+        <v>39100</v>
       </c>
     </row>
     <row r="920" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10950,7 +10950,7 @@
         <v>127</v>
       </c>
       <c r="C920" s="4">
-        <v>40250</v>
+        <v>47150</v>
       </c>
     </row>
     <row r="921" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10993,8 +10993,8 @@
       <c r="B924" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C924" s="5">
-        <v>925</v>
+      <c r="C924" s="4">
+        <v>1134</v>
       </c>
     </row>
     <row r="925" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11004,8 +11004,8 @@
       <c r="B925" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C925" s="5">
-        <v>800</v>
+      <c r="C925" s="4">
+        <v>1152</v>
       </c>
     </row>
     <row r="926" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11015,8 +11015,8 @@
       <c r="B926" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C926" s="4">
-        <v>1050</v>
+      <c r="C926" s="5">
+        <v>648</v>
       </c>
     </row>
     <row r="927" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11027,7 +11027,7 @@
         <v>122</v>
       </c>
       <c r="C927" s="5">
-        <v>800</v>
+        <v>714</v>
       </c>
     </row>
     <row r="928" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11038,7 +11038,7 @@
         <v>123</v>
       </c>
       <c r="C928" s="4">
-        <v>1000</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="929" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11049,7 +11049,7 @@
         <v>124</v>
       </c>
       <c r="C929" s="4">
-        <v>1673</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="930" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11060,7 +11060,7 @@
         <v>125</v>
       </c>
       <c r="C930" s="4">
-        <v>1400</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="931" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11071,7 +11071,7 @@
         <v>126</v>
       </c>
       <c r="C931" s="4">
-        <v>1550</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="932" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11082,7 +11082,7 @@
         <v>127</v>
       </c>
       <c r="C932" s="4">
-        <v>1750</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="933" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11126,7 +11126,7 @@
         <v>119</v>
       </c>
       <c r="C936" s="4">
-        <v>2775</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="937" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11137,7 +11137,7 @@
         <v>120</v>
       </c>
       <c r="C937" s="4">
-        <v>2400</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="938" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11148,7 +11148,7 @@
         <v>121</v>
       </c>
       <c r="C938" s="4">
-        <v>3150</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="939" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11159,7 +11159,7 @@
         <v>122</v>
       </c>
       <c r="C939" s="4">
-        <v>2400</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="940" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11170,7 +11170,7 @@
         <v>123</v>
       </c>
       <c r="C940" s="4">
-        <v>3000</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="941" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11181,7 +11181,7 @@
         <v>124</v>
       </c>
       <c r="C941" s="4">
-        <v>5020</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="942" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11192,7 +11192,7 @@
         <v>125</v>
       </c>
       <c r="C942" s="4">
-        <v>4200</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="943" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11203,7 +11203,7 @@
         <v>126</v>
       </c>
       <c r="C943" s="4">
-        <v>4650</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="944" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11214,7 +11214,7 @@
         <v>127</v>
       </c>
       <c r="C944" s="4">
-        <v>5250</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="945" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11258,7 +11258,7 @@
         <v>119</v>
       </c>
       <c r="C948" s="4">
-        <v>2590</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="949" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11269,7 +11269,7 @@
         <v>120</v>
       </c>
       <c r="C949" s="4">
-        <v>2240</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="950" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11280,7 +11280,7 @@
         <v>121</v>
       </c>
       <c r="C950" s="4">
-        <v>2940</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="951" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11291,7 +11291,7 @@
         <v>122</v>
       </c>
       <c r="C951" s="4">
-        <v>2240</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="952" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11302,7 +11302,7 @@
         <v>123</v>
       </c>
       <c r="C952" s="4">
-        <v>2800</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="953" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11313,7 +11313,7 @@
         <v>124</v>
       </c>
       <c r="C953" s="4">
-        <v>4685</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="954" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11324,7 +11324,7 @@
         <v>125</v>
       </c>
       <c r="C954" s="4">
-        <v>3920</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="955" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11335,7 +11335,7 @@
         <v>126</v>
       </c>
       <c r="C955" s="4">
-        <v>4340</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="956" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11346,7 +11346,7 @@
         <v>127</v>
       </c>
       <c r="C956" s="4">
-        <v>4900</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="957" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11390,7 +11390,7 @@
         <v>119</v>
       </c>
       <c r="C960" s="4">
-        <v>8510</v>
+        <v>9396</v>
       </c>
     </row>
     <row r="961" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11401,7 +11401,7 @@
         <v>120</v>
       </c>
       <c r="C961" s="4">
-        <v>7360</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="962" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11412,7 +11412,7 @@
         <v>121</v>
       </c>
       <c r="C962" s="4">
-        <v>9660</v>
+        <v>6894</v>
       </c>
     </row>
     <row r="963" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11423,7 +11423,7 @@
         <v>122</v>
       </c>
       <c r="C963" s="4">
-        <v>7360</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="964" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11434,7 +11434,7 @@
         <v>123</v>
       </c>
       <c r="C964" s="4">
-        <v>9200</v>
+        <v>8610</v>
       </c>
     </row>
     <row r="965" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11445,7 +11445,7 @@
         <v>124</v>
       </c>
       <c r="C965" s="4">
-        <v>15394</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="966" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11456,7 +11456,7 @@
         <v>125</v>
       </c>
       <c r="C966" s="4">
-        <v>12880</v>
+        <v>13570</v>
       </c>
     </row>
     <row r="967" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11467,7 +11467,7 @@
         <v>126</v>
       </c>
       <c r="C967" s="4">
-        <v>14260</v>
+        <v>15640</v>
       </c>
     </row>
     <row r="968" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11478,7 +11478,7 @@
         <v>127</v>
       </c>
       <c r="C968" s="4">
-        <v>16100</v>
+        <v>18860</v>
       </c>
     </row>
     <row r="969" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11522,7 +11522,7 @@
         <v>119</v>
       </c>
       <c r="C972" s="4">
-        <v>55500</v>
+        <v>48870</v>
       </c>
     </row>
     <row r="973" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11533,7 +11533,7 @@
         <v>120</v>
       </c>
       <c r="C973" s="4">
-        <v>48000</v>
+        <v>25722</v>
       </c>
     </row>
     <row r="974" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11544,7 +11544,7 @@
         <v>121</v>
       </c>
       <c r="C974" s="4">
-        <v>63000</v>
+        <v>54036</v>
       </c>
     </row>
     <row r="975" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11555,7 +11555,7 @@
         <v>122</v>
       </c>
       <c r="C975" s="4">
-        <v>48000</v>
+        <v>32963</v>
       </c>
     </row>
     <row r="976" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="C976" s="4">
-        <v>60000</v>
+        <v>58170</v>
       </c>
     </row>
     <row r="977" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11577,7 +11577,7 @@
         <v>124</v>
       </c>
       <c r="C977" s="4">
-        <v>100397</v>
+        <v>99720</v>
       </c>
     </row>
     <row r="978" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11588,7 +11588,7 @@
         <v>125</v>
       </c>
       <c r="C978" s="4">
-        <v>84000</v>
+        <v>81715</v>
       </c>
     </row>
     <row r="979" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11599,7 +11599,7 @@
         <v>126</v>
       </c>
       <c r="C979" s="4">
-        <v>93000</v>
+        <v>94180</v>
       </c>
     </row>
     <row r="980" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11610,7 +11610,7 @@
         <v>127</v>
       </c>
       <c r="C980" s="4">
-        <v>105000</v>
+        <v>113570</v>
       </c>
     </row>
     <row r="981" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11654,7 +11654,7 @@
         <v>119</v>
       </c>
       <c r="C984" s="4">
-        <v>10915</v>
+        <v>13122</v>
       </c>
     </row>
     <row r="985" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11665,7 +11665,7 @@
         <v>120</v>
       </c>
       <c r="C985" s="4">
-        <v>9440</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="986" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11676,7 +11676,7 @@
         <v>121</v>
       </c>
       <c r="C986" s="4">
-        <v>12390</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="987" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11687,7 +11687,7 @@
         <v>122</v>
       </c>
       <c r="C987" s="4">
-        <v>9440</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="988" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11698,7 +11698,7 @@
         <v>123</v>
       </c>
       <c r="C988" s="4">
-        <v>11800</v>
+        <v>11970</v>
       </c>
     </row>
     <row r="989" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11709,7 +11709,7 @@
         <v>124</v>
       </c>
       <c r="C989" s="4">
-        <v>19745</v>
+        <v>24120</v>
       </c>
     </row>
     <row r="990" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11720,7 +11720,7 @@
         <v>125</v>
       </c>
       <c r="C990" s="4">
-        <v>16520</v>
+        <v>17405</v>
       </c>
     </row>
     <row r="991" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11731,7 +11731,7 @@
         <v>126</v>
       </c>
       <c r="C991" s="4">
-        <v>18290</v>
+        <v>20060</v>
       </c>
     </row>
     <row r="992" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11742,7 +11742,7 @@
         <v>127</v>
       </c>
       <c r="C992" s="4">
-        <v>20650</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="993" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11786,7 +11786,7 @@
         <v>119</v>
       </c>
       <c r="C996" s="4">
-        <v>370000</v>
+        <v>213027</v>
       </c>
     </row>
     <row r="997" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11797,7 +11797,7 @@
         <v>120</v>
       </c>
       <c r="C997" s="4">
-        <v>320000</v>
+        <v>171252</v>
       </c>
     </row>
     <row r="998" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11808,7 +11808,7 @@
         <v>121</v>
       </c>
       <c r="C998" s="4">
-        <v>420000</v>
+        <v>423486</v>
       </c>
     </row>
     <row r="999" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11819,7 +11819,7 @@
         <v>122</v>
       </c>
       <c r="C999" s="4">
-        <v>320000</v>
+        <v>207060</v>
       </c>
     </row>
     <row r="1000" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11830,7 +11830,7 @@
         <v>123</v>
       </c>
       <c r="C1000" s="4">
-        <v>400000</v>
+        <v>407400</v>
       </c>
     </row>
     <row r="1001" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11841,7 +11841,7 @@
         <v>124</v>
       </c>
       <c r="C1001" s="4">
-        <v>669319</v>
+        <v>721800</v>
       </c>
     </row>
     <row r="1002" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11852,7 +11852,7 @@
         <v>125</v>
       </c>
       <c r="C1002" s="4">
-        <v>560000</v>
+        <v>595900</v>
       </c>
     </row>
     <row r="1003" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11863,7 +11863,7 @@
         <v>126</v>
       </c>
       <c r="C1003" s="4">
-        <v>620000</v>
+        <v>686800</v>
       </c>
     </row>
     <row r="1004" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11874,7 +11874,7 @@
         <v>127</v>
       </c>
       <c r="C1004" s="4">
-        <v>700000</v>
+        <v>828200</v>
       </c>
     </row>
     <row r="1005" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11918,7 +11918,7 @@
         <v>119</v>
       </c>
       <c r="C1008" s="4">
-        <v>16095</v>
+        <v>25686</v>
       </c>
     </row>
     <row r="1009" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11929,7 +11929,7 @@
         <v>120</v>
       </c>
       <c r="C1009" s="4">
-        <v>13920</v>
+        <v>7506</v>
       </c>
     </row>
     <row r="1010" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11940,7 +11940,7 @@
         <v>121</v>
       </c>
       <c r="C1010" s="4">
-        <v>18270</v>
+        <v>18594</v>
       </c>
     </row>
     <row r="1011" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11951,7 +11951,7 @@
         <v>122</v>
       </c>
       <c r="C1011" s="4">
-        <v>13920</v>
+        <v>13209</v>
       </c>
     </row>
     <row r="1012" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11962,7 +11962,7 @@
         <v>123</v>
       </c>
       <c r="C1012" s="4">
-        <v>17400</v>
+        <v>23310</v>
       </c>
     </row>
     <row r="1013" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11973,7 +11973,7 @@
         <v>124</v>
       </c>
       <c r="C1013" s="4">
-        <v>29115</v>
+        <v>34200</v>
       </c>
     </row>
     <row r="1014" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11984,7 +11984,7 @@
         <v>125</v>
       </c>
       <c r="C1014" s="4">
-        <v>24360</v>
+        <v>25665</v>
       </c>
     </row>
     <row r="1015" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11995,7 +11995,7 @@
         <v>126</v>
       </c>
       <c r="C1015" s="4">
-        <v>26970</v>
+        <v>29580</v>
       </c>
     </row>
     <row r="1016" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12006,7 +12006,7 @@
         <v>127</v>
       </c>
       <c r="C1016" s="4">
-        <v>30450</v>
+        <v>35670</v>
       </c>
     </row>
     <row r="1017" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12050,7 +12050,7 @@
         <v>119</v>
       </c>
       <c r="C1020" s="4">
-        <v>89355</v>
+        <v>182196</v>
       </c>
     </row>
     <row r="1021" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12061,7 +12061,7 @@
         <v>120</v>
       </c>
       <c r="C1021" s="4">
-        <v>77280</v>
+        <v>131634</v>
       </c>
     </row>
     <row r="1022" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12072,7 +12072,7 @@
         <v>121</v>
       </c>
       <c r="C1022" s="4">
-        <v>101430</v>
+        <v>215406</v>
       </c>
     </row>
     <row r="1023" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12083,7 +12083,7 @@
         <v>122</v>
       </c>
       <c r="C1023" s="4">
-        <v>77280</v>
+        <v>135660</v>
       </c>
     </row>
     <row r="1024" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12094,7 +12094,7 @@
         <v>123</v>
       </c>
       <c r="C1024" s="4">
-        <v>96600</v>
+        <v>176400</v>
       </c>
     </row>
     <row r="1025" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12105,7 +12105,7 @@
         <v>124</v>
       </c>
       <c r="C1025" s="4">
-        <v>161640</v>
+        <v>198000</v>
       </c>
     </row>
     <row r="1026" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12116,7 +12116,7 @@
         <v>125</v>
       </c>
       <c r="C1026" s="4">
-        <v>135240</v>
+        <v>156350</v>
       </c>
     </row>
     <row r="1027" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12127,7 +12127,7 @@
         <v>126</v>
       </c>
       <c r="C1027" s="4">
-        <v>149730</v>
+        <v>180200</v>
       </c>
     </row>
     <row r="1028" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12138,7 +12138,7 @@
         <v>127</v>
       </c>
       <c r="C1028" s="4">
-        <v>169050</v>
+        <v>217300</v>
       </c>
     </row>
     <row r="1029" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12182,7 +12182,7 @@
         <v>119</v>
       </c>
       <c r="C1032" s="4">
-        <v>186110</v>
+        <v>85572</v>
       </c>
     </row>
     <row r="1033" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12193,7 +12193,7 @@
         <v>120</v>
       </c>
       <c r="C1033" s="4">
-        <v>160960</v>
+        <v>60462</v>
       </c>
     </row>
     <row r="1034" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12204,7 +12204,7 @@
         <v>121</v>
       </c>
       <c r="C1034" s="4">
-        <v>211260</v>
+        <v>109692</v>
       </c>
     </row>
     <row r="1035" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12215,7 +12215,7 @@
         <v>122</v>
       </c>
       <c r="C1035" s="4">
-        <v>160960</v>
+        <v>65450</v>
       </c>
     </row>
     <row r="1036" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12226,7 +12226,7 @@
         <v>123</v>
       </c>
       <c r="C1036" s="4">
-        <v>201200</v>
+        <v>136500</v>
       </c>
     </row>
     <row r="1037" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12237,7 +12237,7 @@
         <v>124</v>
       </c>
       <c r="C1037" s="4">
-        <v>336666</v>
+        <v>302400</v>
       </c>
     </row>
     <row r="1038" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12248,7 +12248,7 @@
         <v>125</v>
       </c>
       <c r="C1038" s="4">
-        <v>281680</v>
+        <v>282020</v>
       </c>
     </row>
     <row r="1039" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12259,7 +12259,7 @@
         <v>126</v>
       </c>
       <c r="C1039" s="4">
-        <v>311860</v>
+        <v>325040</v>
       </c>
     </row>
     <row r="1040" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12270,7 +12270,7 @@
         <v>127</v>
       </c>
       <c r="C1040" s="4">
-        <v>352100</v>
+        <v>391960</v>
       </c>
     </row>
     <row r="1041" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12314,7 +12314,7 @@
         <v>119</v>
       </c>
       <c r="C1044" s="4">
-        <v>7215</v>
+        <v>8046</v>
       </c>
     </row>
     <row r="1045" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12325,7 +12325,7 @@
         <v>120</v>
       </c>
       <c r="C1045" s="4">
-        <v>6240</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="1046" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12336,7 +12336,7 @@
         <v>121</v>
       </c>
       <c r="C1046" s="4">
-        <v>8190</v>
+        <v>7236</v>
       </c>
     </row>
     <row r="1047" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12347,7 +12347,7 @@
         <v>122</v>
       </c>
       <c r="C1047" s="4">
-        <v>6240</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="1048" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12358,7 +12358,7 @@
         <v>123</v>
       </c>
       <c r="C1048" s="4">
-        <v>7800</v>
+        <v>8610</v>
       </c>
     </row>
     <row r="1049" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12369,7 +12369,7 @@
         <v>124</v>
       </c>
       <c r="C1049" s="4">
-        <v>13052</v>
+        <v>15840</v>
       </c>
     </row>
     <row r="1050" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12380,7 +12380,7 @@
         <v>125</v>
       </c>
       <c r="C1050" s="4">
-        <v>10920</v>
+        <v>11505</v>
       </c>
     </row>
     <row r="1051" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12391,7 +12391,7 @@
         <v>126</v>
       </c>
       <c r="C1051" s="4">
-        <v>12090</v>
+        <v>13260</v>
       </c>
     </row>
     <row r="1052" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12402,7 +12402,7 @@
         <v>127</v>
       </c>
       <c r="C1052" s="4">
-        <v>13650</v>
+        <v>15990</v>
       </c>
     </row>
     <row r="1053" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12446,7 +12446,7 @@
         <v>119</v>
       </c>
       <c r="C1056" s="4">
-        <v>7955</v>
+        <v>10188</v>
       </c>
     </row>
     <row r="1057" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12457,7 +12457,7 @@
         <v>120</v>
       </c>
       <c r="C1057" s="4">
-        <v>6880</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="1058" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12468,7 +12468,7 @@
         <v>121</v>
       </c>
       <c r="C1058" s="4">
-        <v>9030</v>
+        <v>8892</v>
       </c>
     </row>
     <row r="1059" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12479,7 +12479,7 @@
         <v>122</v>
       </c>
       <c r="C1059" s="4">
-        <v>6880</v>
+        <v>6902</v>
       </c>
     </row>
     <row r="1060" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12490,7 +12490,7 @@
         <v>123</v>
       </c>
       <c r="C1060" s="4">
-        <v>8600</v>
+        <v>12180</v>
       </c>
     </row>
     <row r="1061" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12501,7 +12501,7 @@
         <v>124</v>
       </c>
       <c r="C1061" s="4">
-        <v>14390</v>
+        <v>16920</v>
       </c>
     </row>
     <row r="1062" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12512,7 +12512,7 @@
         <v>125</v>
       </c>
       <c r="C1062" s="4">
-        <v>12040</v>
+        <v>12685</v>
       </c>
     </row>
     <row r="1063" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12523,7 +12523,7 @@
         <v>126</v>
       </c>
       <c r="C1063" s="4">
-        <v>13330</v>
+        <v>14620</v>
       </c>
     </row>
     <row r="1064" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12534,7 +12534,7 @@
         <v>127</v>
       </c>
       <c r="C1064" s="4">
-        <v>15050</v>
+        <v>17630</v>
       </c>
     </row>
     <row r="1065" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12578,7 +12578,7 @@
         <v>119</v>
       </c>
       <c r="C1068" s="4">
-        <v>28675</v>
+        <v>26532</v>
       </c>
     </row>
     <row r="1069" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12589,7 +12589,7 @@
         <v>120</v>
       </c>
       <c r="C1069" s="4">
-        <v>24800</v>
+        <v>21312</v>
       </c>
     </row>
     <row r="1070" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12600,7 +12600,7 @@
         <v>121</v>
       </c>
       <c r="C1070" s="4">
-        <v>32550</v>
+        <v>39996</v>
       </c>
     </row>
     <row r="1071" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12611,7 +12611,7 @@
         <v>122</v>
       </c>
       <c r="C1071" s="4">
-        <v>24800</v>
+        <v>22491</v>
       </c>
     </row>
     <row r="1072" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12622,7 +12622,7 @@
         <v>123</v>
       </c>
       <c r="C1072" s="4">
-        <v>31000</v>
+        <v>39690</v>
       </c>
     </row>
     <row r="1073" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12633,7 +12633,7 @@
         <v>124</v>
       </c>
       <c r="C1073" s="4">
-        <v>51872</v>
+        <v>61200</v>
       </c>
     </row>
     <row r="1074" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12644,7 +12644,7 @@
         <v>125</v>
       </c>
       <c r="C1074" s="4">
-        <v>43400</v>
+        <v>45725</v>
       </c>
     </row>
     <row r="1075" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12655,7 +12655,7 @@
         <v>126</v>
       </c>
       <c r="C1075" s="4">
-        <v>48050</v>
+        <v>52700</v>
       </c>
     </row>
     <row r="1076" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12666,7 +12666,7 @@
         <v>127</v>
       </c>
       <c r="C1076" s="4">
-        <v>54250</v>
+        <v>63550</v>
       </c>
     </row>
     <row r="1077" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12710,7 +12710,7 @@
         <v>119</v>
       </c>
       <c r="C1080" s="4">
-        <v>31265</v>
+        <v>36051</v>
       </c>
     </row>
     <row r="1081" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12721,7 +12721,7 @@
         <v>120</v>
       </c>
       <c r="C1081" s="4">
-        <v>27040</v>
+        <v>19890</v>
       </c>
     </row>
     <row r="1082" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12732,7 +12732,7 @@
         <v>121</v>
       </c>
       <c r="C1082" s="4">
-        <v>35490</v>
+        <v>20466</v>
       </c>
     </row>
     <row r="1083" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12743,7 +12743,7 @@
         <v>122</v>
       </c>
       <c r="C1083" s="4">
-        <v>27040</v>
+        <v>19516</v>
       </c>
     </row>
     <row r="1084" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12754,7 +12754,7 @@
         <v>123</v>
       </c>
       <c r="C1084" s="4">
-        <v>33800</v>
+        <v>34440</v>
       </c>
     </row>
     <row r="1085" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12765,7 +12765,7 @@
         <v>124</v>
       </c>
       <c r="C1085" s="4">
-        <v>56557</v>
+        <v>69480</v>
       </c>
     </row>
     <row r="1086" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12776,7 +12776,7 @@
         <v>125</v>
       </c>
       <c r="C1086" s="4">
-        <v>47320</v>
+        <v>49855</v>
       </c>
     </row>
     <row r="1087" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12787,7 +12787,7 @@
         <v>126</v>
       </c>
       <c r="C1087" s="4">
-        <v>52390</v>
+        <v>57460</v>
       </c>
     </row>
     <row r="1088" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12798,7 +12798,7 @@
         <v>127</v>
       </c>
       <c r="C1088" s="4">
-        <v>59150</v>
+        <v>69290</v>
       </c>
     </row>
     <row r="1089" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12842,7 +12842,7 @@
         <v>119</v>
       </c>
       <c r="C1092" s="4">
-        <v>81585</v>
+        <v>77166</v>
       </c>
     </row>
     <row r="1093" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12853,7 +12853,7 @@
         <v>120</v>
       </c>
       <c r="C1093" s="4">
-        <v>72160</v>
+        <v>46440</v>
       </c>
     </row>
     <row r="1094" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12864,7 +12864,7 @@
         <v>121</v>
       </c>
       <c r="C1094" s="4">
-        <v>94920</v>
+        <v>82512</v>
       </c>
     </row>
     <row r="1095" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12875,7 +12875,7 @@
         <v>122</v>
       </c>
       <c r="C1095" s="4">
-        <v>73760</v>
+        <v>55097</v>
       </c>
     </row>
     <row r="1096" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12886,7 +12886,7 @@
         <v>123</v>
       </c>
       <c r="C1096" s="4">
-        <v>92200</v>
+        <v>97230</v>
       </c>
     </row>
     <row r="1097" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12897,7 +12897,7 @@
         <v>124</v>
       </c>
       <c r="C1097" s="4">
-        <v>154277</v>
+        <v>165960</v>
       </c>
     </row>
     <row r="1098" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12908,7 +12908,7 @@
         <v>125</v>
       </c>
       <c r="C1098" s="4">
-        <v>129080</v>
+        <v>135995</v>
       </c>
     </row>
     <row r="1099" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12919,7 +12919,7 @@
         <v>126</v>
       </c>
       <c r="C1099" s="4">
-        <v>142910</v>
+        <v>156740</v>
       </c>
     </row>
     <row r="1100" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
         <v>127</v>
       </c>
       <c r="C1100" s="4">
-        <v>161350</v>
+        <v>189010</v>
       </c>
     </row>
     <row r="1101" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12974,7 +12974,7 @@
         <v>119</v>
       </c>
       <c r="C1104" s="4">
-        <v>15540</v>
+        <v>16650</v>
       </c>
     </row>
     <row r="1105" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12985,7 +12985,7 @@
         <v>120</v>
       </c>
       <c r="C1105" s="4">
-        <v>13440</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="1106" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12996,7 +12996,7 @@
         <v>121</v>
       </c>
       <c r="C1106" s="4">
-        <v>17640</v>
+        <v>13752</v>
       </c>
     </row>
     <row r="1107" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13007,7 +13007,7 @@
         <v>122</v>
       </c>
       <c r="C1107" s="4">
-        <v>13440</v>
+        <v>9877</v>
       </c>
     </row>
     <row r="1108" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13018,7 +13018,7 @@
         <v>123</v>
       </c>
       <c r="C1108" s="4">
-        <v>16800</v>
+        <v>17430</v>
       </c>
     </row>
     <row r="1109" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13029,7 +13029,7 @@
         <v>124</v>
       </c>
       <c r="C1109" s="4">
-        <v>28111</v>
+        <v>32040</v>
       </c>
     </row>
     <row r="1110" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13040,7 +13040,7 @@
         <v>125</v>
       </c>
       <c r="C1110" s="4">
-        <v>23520</v>
+        <v>24780</v>
       </c>
     </row>
     <row r="1111" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13051,7 +13051,7 @@
         <v>126</v>
       </c>
       <c r="C1111" s="4">
-        <v>26040</v>
+        <v>28560</v>
       </c>
     </row>
     <row r="1112" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13062,7 +13062,7 @@
         <v>127</v>
       </c>
       <c r="C1112" s="4">
-        <v>29400</v>
+        <v>34440</v>
       </c>
     </row>
     <row r="1113" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13106,7 +13106,7 @@
         <v>119</v>
       </c>
       <c r="C1116" s="4">
-        <v>22200</v>
+        <v>24012</v>
       </c>
     </row>
     <row r="1117" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13117,7 +13117,7 @@
         <v>120</v>
       </c>
       <c r="C1117" s="4">
-        <v>19200</v>
+        <v>9630</v>
       </c>
     </row>
     <row r="1118" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13128,7 +13128,7 @@
         <v>121</v>
       </c>
       <c r="C1118" s="4">
-        <v>25200</v>
+        <v>20268</v>
       </c>
     </row>
     <row r="1119" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13139,7 +13139,7 @@
         <v>122</v>
       </c>
       <c r="C1119" s="4">
-        <v>19200</v>
+        <v>13804</v>
       </c>
     </row>
     <row r="1120" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13150,7 +13150,7 @@
         <v>123</v>
       </c>
       <c r="C1120" s="4">
-        <v>24000</v>
+        <v>24360</v>
       </c>
     </row>
     <row r="1121" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13161,7 +13161,7 @@
         <v>124</v>
       </c>
       <c r="C1121" s="4">
-        <v>40159</v>
+        <v>45720</v>
       </c>
     </row>
     <row r="1122" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13172,7 +13172,7 @@
         <v>125</v>
       </c>
       <c r="C1122" s="4">
-        <v>33600</v>
+        <v>40120</v>
       </c>
     </row>
     <row r="1123" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13183,7 +13183,7 @@
         <v>126</v>
       </c>
       <c r="C1123" s="4">
-        <v>37200</v>
+        <v>46240</v>
       </c>
     </row>
     <row r="1124" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13194,7 +13194,7 @@
         <v>127</v>
       </c>
       <c r="C1124" s="4">
-        <v>42000</v>
+        <v>55760</v>
       </c>
     </row>
     <row r="1125" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13238,7 +13238,7 @@
         <v>119</v>
       </c>
       <c r="C1128" s="4">
-        <v>13135</v>
+        <v>11430</v>
       </c>
     </row>
     <row r="1129" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13249,7 +13249,7 @@
         <v>120</v>
       </c>
       <c r="C1129" s="4">
-        <v>11360</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="1130" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13260,7 +13260,7 @@
         <v>121</v>
       </c>
       <c r="C1130" s="4">
-        <v>14910</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="1131" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13271,7 +13271,7 @@
         <v>122</v>
       </c>
       <c r="C1131" s="4">
-        <v>11360</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="1132" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13282,7 +13282,7 @@
         <v>123</v>
       </c>
       <c r="C1132" s="4">
-        <v>14200</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="1133" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13293,7 +13293,7 @@
         <v>124</v>
       </c>
       <c r="C1133" s="4">
-        <v>23761</v>
+        <v>23040</v>
       </c>
     </row>
     <row r="1134" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13304,7 +13304,7 @@
         <v>125</v>
       </c>
       <c r="C1134" s="4">
-        <v>19880</v>
+        <v>20945</v>
       </c>
     </row>
     <row r="1135" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13315,7 +13315,7 @@
         <v>126</v>
       </c>
       <c r="C1135" s="4">
-        <v>22010</v>
+        <v>24140</v>
       </c>
     </row>
     <row r="1136" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13326,7 +13326,7 @@
         <v>127</v>
       </c>
       <c r="C1136" s="4">
-        <v>24850</v>
+        <v>29110</v>
       </c>
     </row>
     <row r="1137" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13370,7 +13370,7 @@
         <v>119</v>
       </c>
       <c r="C1140" s="4">
-        <v>54575</v>
+        <v>38394</v>
       </c>
     </row>
     <row r="1141" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13381,7 +13381,7 @@
         <v>120</v>
       </c>
       <c r="C1141" s="4">
-        <v>47200</v>
+        <v>33624</v>
       </c>
     </row>
     <row r="1142" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13392,7 +13392,7 @@
         <v>121</v>
       </c>
       <c r="C1142" s="4">
-        <v>61950</v>
+        <v>51210</v>
       </c>
     </row>
     <row r="1143" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13403,7 +13403,7 @@
         <v>122</v>
       </c>
       <c r="C1143" s="4">
-        <v>47200</v>
+        <v>31535</v>
       </c>
     </row>
     <row r="1144" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13414,7 +13414,7 @@
         <v>123</v>
       </c>
       <c r="C1144" s="4">
-        <v>59000</v>
+        <v>55650</v>
       </c>
     </row>
     <row r="1145" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13425,7 +13425,7 @@
         <v>124</v>
       </c>
       <c r="C1145" s="4">
-        <v>98724</v>
+        <v>66960</v>
       </c>
     </row>
     <row r="1146" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13436,7 +13436,7 @@
         <v>125</v>
       </c>
       <c r="C1146" s="4">
-        <v>82600</v>
+        <v>87025</v>
       </c>
     </row>
     <row r="1147" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13447,7 +13447,7 @@
         <v>126</v>
       </c>
       <c r="C1147" s="4">
-        <v>91450</v>
+        <v>100300</v>
       </c>
     </row>
     <row r="1148" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13458,7 +13458,7 @@
         <v>127</v>
       </c>
       <c r="C1148" s="4">
-        <v>103250</v>
+        <v>120950</v>
       </c>
     </row>
     <row r="1149" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13502,7 +13502,7 @@
         <v>119</v>
       </c>
       <c r="C1152" s="4">
-        <v>12025</v>
+        <v>17766</v>
       </c>
     </row>
     <row r="1153" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13513,7 +13513,7 @@
         <v>120</v>
       </c>
       <c r="C1153" s="4">
-        <v>10400</v>
+        <v>9108</v>
       </c>
     </row>
     <row r="1154" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13524,7 +13524,7 @@
         <v>121</v>
       </c>
       <c r="C1154" s="4">
-        <v>13650</v>
+        <v>14634</v>
       </c>
     </row>
     <row r="1155" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13535,7 +13535,7 @@
         <v>122</v>
       </c>
       <c r="C1155" s="4">
-        <v>10400</v>
+        <v>10591</v>
       </c>
     </row>
     <row r="1156" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13546,7 +13546,7 @@
         <v>123</v>
       </c>
       <c r="C1156" s="4">
-        <v>13000</v>
+        <v>18690</v>
       </c>
     </row>
     <row r="1157" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13557,7 +13557,7 @@
         <v>124</v>
       </c>
       <c r="C1157" s="4">
-        <v>21753</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="1158" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13568,7 +13568,7 @@
         <v>125</v>
       </c>
       <c r="C1158" s="4">
-        <v>18200</v>
+        <v>19175</v>
       </c>
     </row>
     <row r="1159" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13579,7 +13579,7 @@
         <v>126</v>
       </c>
       <c r="C1159" s="4">
-        <v>20150</v>
+        <v>22100</v>
       </c>
     </row>
     <row r="1160" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13590,7 +13590,7 @@
         <v>127</v>
       </c>
       <c r="C1160" s="4">
-        <v>22750</v>
+        <v>26650</v>
       </c>
     </row>
     <row r="1161" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13634,7 +13634,7 @@
         <v>119</v>
       </c>
       <c r="C1164" s="4">
-        <v>11840</v>
+        <v>12960</v>
       </c>
     </row>
     <row r="1165" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13645,7 +13645,7 @@
         <v>120</v>
       </c>
       <c r="C1165" s="4">
-        <v>10240</v>
+        <v>7794</v>
       </c>
     </row>
     <row r="1166" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13656,7 +13656,7 @@
         <v>121</v>
       </c>
       <c r="C1166" s="4">
-        <v>13440</v>
+        <v>11466</v>
       </c>
     </row>
     <row r="1167" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13667,7 +13667,7 @@
         <v>122</v>
       </c>
       <c r="C1167" s="4">
-        <v>10240</v>
+        <v>8211</v>
       </c>
     </row>
     <row r="1168" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13678,7 +13678,7 @@
         <v>123</v>
       </c>
       <c r="C1168" s="4">
-        <v>12800</v>
+        <v>14490</v>
       </c>
     </row>
     <row r="1169" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13689,7 +13689,7 @@
         <v>124</v>
       </c>
       <c r="C1169" s="4">
-        <v>21418</v>
+        <v>27360</v>
       </c>
     </row>
     <row r="1170" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13700,7 +13700,7 @@
         <v>125</v>
       </c>
       <c r="C1170" s="4">
-        <v>17920</v>
+        <v>18880</v>
       </c>
     </row>
     <row r="1171" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13711,7 +13711,7 @@
         <v>126</v>
       </c>
       <c r="C1171" s="4">
-        <v>19840</v>
+        <v>21760</v>
       </c>
     </row>
     <row r="1172" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13722,7 +13722,7 @@
         <v>127</v>
       </c>
       <c r="C1172" s="4">
-        <v>22400</v>
+        <v>26240</v>
       </c>
     </row>
     <row r="1173" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13766,7 +13766,7 @@
         <v>119</v>
       </c>
       <c r="C1176" s="4">
-        <v>1110</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1177" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13776,8 +13776,8 @@
       <c r="B1177" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C1177" s="5">
-        <v>960</v>
+      <c r="C1177" s="4">
+        <v>1224</v>
       </c>
     </row>
     <row r="1178" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13787,8 +13787,8 @@
       <c r="B1178" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C1178" s="4">
-        <v>1260</v>
+      <c r="C1178" s="5">
+        <v>684</v>
       </c>
     </row>
     <row r="1179" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13798,8 +13798,8 @@
       <c r="B1179" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C1179" s="5">
-        <v>960</v>
+      <c r="C1179" s="4">
+        <v>1071</v>
       </c>
     </row>
     <row r="1180" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13810,7 +13810,7 @@
         <v>123</v>
       </c>
       <c r="C1180" s="4">
-        <v>1200</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1181" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13821,7 +13821,7 @@
         <v>124</v>
       </c>
       <c r="C1181" s="4">
-        <v>2008</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1182" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13832,7 +13832,7 @@
         <v>125</v>
       </c>
       <c r="C1182" s="4">
-        <v>1680</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1183" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13843,7 +13843,7 @@
         <v>126</v>
       </c>
       <c r="C1183" s="4">
-        <v>1860</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1184" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13854,7 +13854,7 @@
         <v>127</v>
       </c>
       <c r="C1184" s="4">
-        <v>2100</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="1185" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13898,7 +13898,7 @@
         <v>119</v>
       </c>
       <c r="C1188" s="4">
-        <v>5879</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="1189" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13909,7 +13909,7 @@
         <v>120</v>
       </c>
       <c r="C1189" s="4">
-        <v>4500</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1190" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13920,7 +13920,7 @@
         <v>121</v>
       </c>
       <c r="C1190" s="4">
-        <v>5319</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="1191" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13931,7 +13931,7 @@
         <v>122</v>
       </c>
       <c r="C1191" s="4">
-        <v>5353</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1192" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13942,7 +13942,7 @@
         <v>123</v>
       </c>
       <c r="C1192" s="4">
-        <v>7005</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="1193" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13953,7 +13953,7 @@
         <v>124</v>
       </c>
       <c r="C1193" s="4">
-        <v>6817</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="1194" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13964,7 +13964,7 @@
         <v>125</v>
       </c>
       <c r="C1194" s="4">
-        <v>7303</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="1195" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13975,7 +13975,7 @@
         <v>126</v>
       </c>
       <c r="C1195" s="4">
-        <v>8392</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="1196" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13986,7 +13986,7 @@
         <v>127</v>
       </c>
       <c r="C1196" s="4">
-        <v>9459</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="1197" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14030,7 +14030,7 @@
         <v>119</v>
       </c>
       <c r="C1200" s="4">
-        <v>12580</v>
+        <v>17514</v>
       </c>
     </row>
     <row r="1201" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14041,7 +14041,7 @@
         <v>120</v>
       </c>
       <c r="C1201" s="4">
-        <v>10880</v>
+        <v>14256</v>
       </c>
     </row>
     <row r="1202" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14052,7 +14052,7 @@
         <v>121</v>
       </c>
       <c r="C1202" s="4">
-        <v>14280</v>
+        <v>16920</v>
       </c>
     </row>
     <row r="1203" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14063,7 +14063,7 @@
         <v>122</v>
       </c>
       <c r="C1203" s="4">
-        <v>10880</v>
+        <v>12495</v>
       </c>
     </row>
     <row r="1204" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14074,7 +14074,7 @@
         <v>123</v>
       </c>
       <c r="C1204" s="4">
-        <v>13600</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="1205" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14085,7 +14085,7 @@
         <v>124</v>
       </c>
       <c r="C1205" s="4">
-        <v>22757</v>
+        <v>24840</v>
       </c>
     </row>
     <row r="1206" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14096,7 +14096,7 @@
         <v>125</v>
       </c>
       <c r="C1206" s="4">
-        <v>19040</v>
+        <v>20060</v>
       </c>
     </row>
     <row r="1207" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14107,7 +14107,7 @@
         <v>126</v>
       </c>
       <c r="C1207" s="4">
-        <v>21080</v>
+        <v>23120</v>
       </c>
     </row>
     <row r="1208" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14118,7 +14118,7 @@
         <v>127</v>
       </c>
       <c r="C1208" s="4">
-        <v>23800</v>
+        <v>27880</v>
       </c>
     </row>
     <row r="1209" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14162,7 +14162,7 @@
         <v>119</v>
       </c>
       <c r="C1212" s="4">
-        <v>16095</v>
+        <v>13212</v>
       </c>
     </row>
     <row r="1213" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14173,7 +14173,7 @@
         <v>120</v>
       </c>
       <c r="C1213" s="4">
-        <v>13920</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="1214" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14184,7 +14184,7 @@
         <v>121</v>
       </c>
       <c r="C1214" s="4">
-        <v>18270</v>
+        <v>12456</v>
       </c>
     </row>
     <row r="1215" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14195,7 +14195,7 @@
         <v>122</v>
       </c>
       <c r="C1215" s="4">
-        <v>13920</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="1216" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14206,7 +14206,7 @@
         <v>123</v>
       </c>
       <c r="C1216" s="4">
-        <v>17400</v>
+        <v>13020</v>
       </c>
     </row>
     <row r="1217" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14217,7 +14217,7 @@
         <v>124</v>
       </c>
       <c r="C1217" s="4">
-        <v>29115</v>
+        <v>38160</v>
       </c>
     </row>
     <row r="1218" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14228,7 +14228,7 @@
         <v>125</v>
       </c>
       <c r="C1218" s="4">
-        <v>24360</v>
+        <v>25665</v>
       </c>
     </row>
     <row r="1219" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14239,7 +14239,7 @@
         <v>126</v>
       </c>
       <c r="C1219" s="4">
-        <v>26970</v>
+        <v>29580</v>
       </c>
     </row>
     <row r="1220" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14250,7 +14250,7 @@
         <v>127</v>
       </c>
       <c r="C1220" s="4">
-        <v>30450</v>
+        <v>35670</v>
       </c>
     </row>
     <row r="1221" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14294,7 +14294,7 @@
         <v>119</v>
       </c>
       <c r="C1224" s="4">
-        <v>17390</v>
+        <v>15642</v>
       </c>
     </row>
     <row r="1225" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14305,7 +14305,7 @@
         <v>120</v>
       </c>
       <c r="C1225" s="4">
-        <v>15040</v>
+        <v>11610</v>
       </c>
     </row>
     <row r="1226" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14316,7 +14316,7 @@
         <v>121</v>
       </c>
       <c r="C1226" s="4">
-        <v>19740</v>
+        <v>18270</v>
       </c>
     </row>
     <row r="1227" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14327,7 +14327,7 @@
         <v>122</v>
       </c>
       <c r="C1227" s="4">
-        <v>15040</v>
+        <v>11662</v>
       </c>
     </row>
     <row r="1228" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14338,7 +14338,7 @@
         <v>123</v>
       </c>
       <c r="C1228" s="4">
-        <v>18800</v>
+        <v>20580</v>
       </c>
     </row>
     <row r="1229" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14349,7 +14349,7 @@
         <v>124</v>
       </c>
       <c r="C1229" s="4">
-        <v>31458</v>
+        <v>33120</v>
       </c>
     </row>
     <row r="1230" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14360,7 +14360,7 @@
         <v>125</v>
       </c>
       <c r="C1230" s="4">
-        <v>26320</v>
+        <v>27730</v>
       </c>
     </row>
     <row r="1231" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14371,7 +14371,7 @@
         <v>126</v>
       </c>
       <c r="C1231" s="4">
-        <v>29140</v>
+        <v>31960</v>
       </c>
     </row>
     <row r="1232" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14382,7 +14382,7 @@
         <v>127</v>
       </c>
       <c r="C1232" s="4">
-        <v>32900</v>
+        <v>38540</v>
       </c>
     </row>
     <row r="1233" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14426,7 +14426,7 @@
         <v>119</v>
       </c>
       <c r="C1236" s="4">
-        <v>9805</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="1237" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14437,7 +14437,7 @@
         <v>120</v>
       </c>
       <c r="C1237" s="4">
-        <v>8480</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="1238" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14448,7 +14448,7 @@
         <v>121</v>
       </c>
       <c r="C1238" s="4">
-        <v>11130</v>
+        <v>9360</v>
       </c>
     </row>
     <row r="1239" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14459,7 +14459,7 @@
         <v>122</v>
       </c>
       <c r="C1239" s="4">
-        <v>8480</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="1240" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14470,7 +14470,7 @@
         <v>123</v>
       </c>
       <c r="C1240" s="4">
-        <v>10600</v>
+        <v>13020</v>
       </c>
     </row>
     <row r="1241" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14481,7 +14481,7 @@
         <v>124</v>
       </c>
       <c r="C1241" s="4">
-        <v>17737</v>
+        <v>22680</v>
       </c>
     </row>
     <row r="1242" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14492,7 +14492,7 @@
         <v>125</v>
       </c>
       <c r="C1242" s="4">
-        <v>14840</v>
+        <v>15635</v>
       </c>
     </row>
     <row r="1243" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14503,7 +14503,7 @@
         <v>126</v>
       </c>
       <c r="C1243" s="4">
-        <v>16430</v>
+        <v>18020</v>
       </c>
     </row>
     <row r="1244" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14514,7 +14514,7 @@
         <v>127</v>
       </c>
       <c r="C1244" s="4">
-        <v>18550</v>
+        <v>21730</v>
       </c>
     </row>
     <row r="1245" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14558,7 +14558,7 @@
         <v>119</v>
       </c>
       <c r="C1248" s="4">
-        <v>41995</v>
+        <v>33840</v>
       </c>
     </row>
     <row r="1249" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14569,7 +14569,7 @@
         <v>120</v>
       </c>
       <c r="C1249" s="4">
-        <v>36320</v>
+        <v>14580</v>
       </c>
     </row>
     <row r="1250" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14580,7 +14580,7 @@
         <v>121</v>
       </c>
       <c r="C1250" s="4">
-        <v>47670</v>
+        <v>37242</v>
       </c>
     </row>
     <row r="1251" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14591,7 +14591,7 @@
         <v>122</v>
       </c>
       <c r="C1251" s="4">
-        <v>36320</v>
+        <v>21896</v>
       </c>
     </row>
     <row r="1252" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14602,7 +14602,7 @@
         <v>123</v>
       </c>
       <c r="C1252" s="4">
-        <v>45400</v>
+        <v>38640</v>
       </c>
     </row>
     <row r="1253" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14613,7 +14613,7 @@
         <v>124</v>
       </c>
       <c r="C1253" s="4">
-        <v>75967</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="1254" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14624,7 +14624,7 @@
         <v>125</v>
       </c>
       <c r="C1254" s="4">
-        <v>63560</v>
+        <v>66965</v>
       </c>
     </row>
     <row r="1255" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14635,7 +14635,7 @@
         <v>126</v>
       </c>
       <c r="C1255" s="4">
-        <v>70370</v>
+        <v>77180</v>
       </c>
     </row>
     <row r="1256" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14646,7 +14646,7 @@
         <v>127</v>
       </c>
       <c r="C1256" s="4">
-        <v>79450</v>
+        <v>93070</v>
       </c>
     </row>
     <row r="1257" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14690,7 +14690,7 @@
         <v>119</v>
       </c>
       <c r="C1260" s="4">
-        <v>18500</v>
+        <v>13536</v>
       </c>
     </row>
     <row r="1261" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14701,7 +14701,7 @@
         <v>120</v>
       </c>
       <c r="C1261" s="4">
-        <v>16000</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="1262" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14712,7 +14712,7 @@
         <v>121</v>
       </c>
       <c r="C1262" s="4">
-        <v>21000</v>
+        <v>14508</v>
       </c>
     </row>
     <row r="1263" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14723,7 +14723,7 @@
         <v>122</v>
       </c>
       <c r="C1263" s="4">
-        <v>16000</v>
+        <v>8687</v>
       </c>
     </row>
     <row r="1264" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14734,7 +14734,7 @@
         <v>123</v>
       </c>
       <c r="C1264" s="4">
-        <v>20000</v>
+        <v>15330</v>
       </c>
     </row>
     <row r="1265" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14745,7 +14745,7 @@
         <v>124</v>
       </c>
       <c r="C1265" s="4">
-        <v>33466</v>
+        <v>45720</v>
       </c>
     </row>
     <row r="1266" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14756,7 +14756,7 @@
         <v>125</v>
       </c>
       <c r="C1266" s="4">
-        <v>28000</v>
+        <v>29500</v>
       </c>
     </row>
     <row r="1267" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14767,7 +14767,7 @@
         <v>126</v>
       </c>
       <c r="C1267" s="4">
-        <v>31000</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="1268" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14778,7 +14778,7 @@
         <v>127</v>
       </c>
       <c r="C1268" s="4">
-        <v>35000</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="1269" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14822,7 +14822,7 @@
         <v>119</v>
       </c>
       <c r="C1272" s="4">
-        <v>9065</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="1273" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14833,7 +14833,7 @@
         <v>120</v>
       </c>
       <c r="C1273" s="4">
-        <v>7840</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="1274" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14844,7 +14844,7 @@
         <v>121</v>
       </c>
       <c r="C1274" s="4">
-        <v>10290</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="1275" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14855,7 +14855,7 @@
         <v>122</v>
       </c>
       <c r="C1275" s="4">
-        <v>7840</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1276" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14866,7 +14866,7 @@
         <v>123</v>
       </c>
       <c r="C1276" s="4">
-        <v>9800</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="1277" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14877,7 +14877,7 @@
         <v>124</v>
       </c>
       <c r="C1277" s="4">
-        <v>16398</v>
+        <v>17280</v>
       </c>
     </row>
     <row r="1278" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14888,7 +14888,7 @@
         <v>125</v>
       </c>
       <c r="C1278" s="4">
-        <v>13720</v>
+        <v>14455</v>
       </c>
     </row>
     <row r="1279" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14899,7 +14899,7 @@
         <v>126</v>
       </c>
       <c r="C1279" s="4">
-        <v>15190</v>
+        <v>16660</v>
       </c>
     </row>
     <row r="1280" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14910,7 +14910,7 @@
         <v>127</v>
       </c>
       <c r="C1280" s="4">
-        <v>17150</v>
+        <v>20090</v>
       </c>
     </row>
     <row r="1281" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14954,7 +14954,7 @@
         <v>119</v>
       </c>
       <c r="C1284" s="4">
-        <v>20350</v>
+        <v>18158</v>
       </c>
     </row>
     <row r="1285" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14965,7 +14965,7 @@
         <v>120</v>
       </c>
       <c r="C1285" s="4">
-        <v>17600</v>
+        <v>10584</v>
       </c>
     </row>
     <row r="1286" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14976,7 +14976,7 @@
         <v>121</v>
       </c>
       <c r="C1286" s="4">
-        <v>23100</v>
+        <v>24472</v>
       </c>
     </row>
     <row r="1287" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14987,7 +14987,7 @@
         <v>122</v>
       </c>
       <c r="C1287" s="4">
-        <v>17600</v>
+        <v>13685</v>
       </c>
     </row>
     <row r="1288" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14998,7 +14998,7 @@
         <v>123</v>
       </c>
       <c r="C1288" s="4">
-        <v>22000</v>
+        <v>24150</v>
       </c>
     </row>
     <row r="1289" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15009,7 +15009,7 @@
         <v>124</v>
       </c>
       <c r="C1289" s="4">
-        <v>36812</v>
+        <v>30960</v>
       </c>
     </row>
     <row r="1290" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15020,7 +15020,7 @@
         <v>125</v>
       </c>
       <c r="C1290" s="4">
-        <v>30800</v>
+        <v>32450</v>
       </c>
     </row>
     <row r="1291" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15031,7 +15031,7 @@
         <v>126</v>
       </c>
       <c r="C1291" s="4">
-        <v>34100</v>
+        <v>37400</v>
       </c>
     </row>
     <row r="1292" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15042,7 +15042,7 @@
         <v>127</v>
       </c>
       <c r="C1292" s="4">
-        <v>38500</v>
+        <v>45100</v>
       </c>
     </row>
     <row r="1293" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15086,7 +15086,7 @@
         <v>119</v>
       </c>
       <c r="C1296" s="4">
-        <v>6290</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="1297" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15097,7 +15097,7 @@
         <v>120</v>
       </c>
       <c r="C1297" s="4">
-        <v>5440</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="1298" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15108,7 +15108,7 @@
         <v>121</v>
       </c>
       <c r="C1298" s="4">
-        <v>7140</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1299" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15119,7 +15119,7 @@
         <v>122</v>
       </c>
       <c r="C1299" s="4">
-        <v>5440</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="1300" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15130,7 +15130,7 @@
         <v>123</v>
       </c>
       <c r="C1300" s="4">
-        <v>6800</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="1301" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15141,7 +15141,7 @@
         <v>124</v>
       </c>
       <c r="C1301" s="4">
-        <v>11378</v>
+        <v>11160</v>
       </c>
     </row>
     <row r="1302" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15152,7 +15152,7 @@
         <v>125</v>
       </c>
       <c r="C1302" s="4">
-        <v>9520</v>
+        <v>10030</v>
       </c>
     </row>
     <row r="1303" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15163,7 +15163,7 @@
         <v>126</v>
       </c>
       <c r="C1303" s="4">
-        <v>10540</v>
+        <v>11560</v>
       </c>
     </row>
     <row r="1304" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15174,7 +15174,7 @@
         <v>127</v>
       </c>
       <c r="C1304" s="4">
-        <v>11900</v>
+        <v>13940</v>
       </c>
     </row>
     <row r="1305" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15218,7 +15218,7 @@
         <v>119</v>
       </c>
       <c r="C1308" s="4">
-        <v>8325</v>
+        <v>11536</v>
       </c>
     </row>
     <row r="1309" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15229,7 +15229,7 @@
         <v>120</v>
       </c>
       <c r="C1309" s="4">
-        <v>7200</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1310" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15240,7 +15240,7 @@
         <v>121</v>
       </c>
       <c r="C1310" s="4">
-        <v>9450</v>
+        <v>9128</v>
       </c>
     </row>
     <row r="1311" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15251,7 +15251,7 @@
         <v>122</v>
       </c>
       <c r="C1311" s="4">
-        <v>7200</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="1312" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15262,7 +15262,7 @@
         <v>123</v>
       </c>
       <c r="C1312" s="4">
-        <v>9000</v>
+        <v>11340</v>
       </c>
     </row>
     <row r="1313" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15273,7 +15273,7 @@
         <v>124</v>
       </c>
       <c r="C1313" s="4">
-        <v>15060</v>
+        <v>24120</v>
       </c>
     </row>
     <row r="1314" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15284,7 +15284,7 @@
         <v>125</v>
       </c>
       <c r="C1314" s="4">
-        <v>12600</v>
+        <v>13275</v>
       </c>
     </row>
     <row r="1315" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15295,7 +15295,7 @@
         <v>126</v>
       </c>
       <c r="C1315" s="4">
-        <v>13950</v>
+        <v>15300</v>
       </c>
     </row>
     <row r="1316" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15306,7 +15306,7 @@
         <v>127</v>
       </c>
       <c r="C1316" s="4">
-        <v>15750</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="1317" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15350,7 +15350,7 @@
         <v>119</v>
       </c>
       <c r="C1320" s="4">
-        <v>11840</v>
+        <v>10528</v>
       </c>
     </row>
     <row r="1321" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15361,7 +15361,7 @@
         <v>120</v>
       </c>
       <c r="C1321" s="4">
-        <v>10240</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="1322" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15372,7 +15372,7 @@
         <v>121</v>
       </c>
       <c r="C1322" s="4">
-        <v>13440</v>
+        <v>8862</v>
       </c>
     </row>
     <row r="1323" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15383,7 +15383,7 @@
         <v>122</v>
       </c>
       <c r="C1323" s="4">
-        <v>10240</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="1324" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15394,7 +15394,7 @@
         <v>123</v>
       </c>
       <c r="C1324" s="4">
-        <v>12800</v>
+        <v>11760</v>
       </c>
     </row>
     <row r="1325" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15405,7 +15405,7 @@
         <v>124</v>
       </c>
       <c r="C1325" s="4">
-        <v>21418</v>
+        <v>25920</v>
       </c>
     </row>
     <row r="1326" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15416,7 +15416,7 @@
         <v>125</v>
       </c>
       <c r="C1326" s="4">
-        <v>17920</v>
+        <v>18880</v>
       </c>
     </row>
     <row r="1327" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15427,7 +15427,7 @@
         <v>126</v>
       </c>
       <c r="C1327" s="4">
-        <v>19840</v>
+        <v>21760</v>
       </c>
     </row>
     <row r="1328" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15438,7 +15438,7 @@
         <v>127</v>
       </c>
       <c r="C1328" s="4">
-        <v>22400</v>
+        <v>26240</v>
       </c>
     </row>
     <row r="1329" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15482,7 +15482,7 @@
         <v>119</v>
       </c>
       <c r="C1332" s="4">
-        <v>12765</v>
+        <v>15442</v>
       </c>
     </row>
     <row r="1333" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15493,7 +15493,7 @@
         <v>120</v>
       </c>
       <c r="C1333" s="4">
-        <v>11040</v>
+        <v>6454</v>
       </c>
     </row>
     <row r="1334" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15504,7 +15504,7 @@
         <v>121</v>
       </c>
       <c r="C1334" s="4">
-        <v>14490</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="1335" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15515,7 +15515,7 @@
         <v>122</v>
       </c>
       <c r="C1335" s="4">
-        <v>11040</v>
+        <v>8806</v>
       </c>
     </row>
     <row r="1336" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15526,7 +15526,7 @@
         <v>123</v>
       </c>
       <c r="C1336" s="4">
-        <v>13800</v>
+        <v>15540</v>
       </c>
     </row>
     <row r="1337" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15537,7 +15537,7 @@
         <v>124</v>
       </c>
       <c r="C1337" s="4">
-        <v>23091</v>
+        <v>41040</v>
       </c>
     </row>
     <row r="1338" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15548,7 +15548,7 @@
         <v>125</v>
       </c>
       <c r="C1338" s="4">
-        <v>19320</v>
+        <v>20355</v>
       </c>
     </row>
     <row r="1339" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15559,7 +15559,7 @@
         <v>126</v>
       </c>
       <c r="C1339" s="4">
-        <v>21390</v>
+        <v>23460</v>
       </c>
     </row>
     <row r="1340" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15570,7 +15570,7 @@
         <v>127</v>
       </c>
       <c r="C1340" s="4">
-        <v>24150</v>
+        <v>28290</v>
       </c>
     </row>
     <row r="1341" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15614,7 +15614,7 @@
         <v>119</v>
       </c>
       <c r="C1344" s="4">
-        <v>8510</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="1345" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15625,7 +15625,7 @@
         <v>120</v>
       </c>
       <c r="C1345" s="4">
-        <v>7360</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="1346" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15636,7 +15636,7 @@
         <v>121</v>
       </c>
       <c r="C1346" s="4">
-        <v>9660</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="1347" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15647,7 +15647,7 @@
         <v>122</v>
       </c>
       <c r="C1347" s="4">
-        <v>7360</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="1348" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15658,7 +15658,7 @@
         <v>123</v>
       </c>
       <c r="C1348" s="4">
-        <v>9200</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="1349" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15669,7 +15669,7 @@
         <v>124</v>
       </c>
       <c r="C1349" s="4">
-        <v>15394</v>
+        <v>16920</v>
       </c>
     </row>
     <row r="1350" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15680,7 +15680,7 @@
         <v>125</v>
       </c>
       <c r="C1350" s="4">
-        <v>12880</v>
+        <v>13570</v>
       </c>
     </row>
     <row r="1351" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15691,7 +15691,7 @@
         <v>126</v>
       </c>
       <c r="C1351" s="4">
-        <v>14260</v>
+        <v>15640</v>
       </c>
     </row>
     <row r="1352" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15702,7 +15702,7 @@
         <v>127</v>
       </c>
       <c r="C1352" s="4">
-        <v>16100</v>
+        <v>18860</v>
       </c>
     </row>
     <row r="1353" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15746,7 +15746,7 @@
         <v>119</v>
       </c>
       <c r="C1356" s="4">
-        <v>7770</v>
+        <v>7546</v>
       </c>
     </row>
     <row r="1357" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15757,7 +15757,7 @@
         <v>120</v>
       </c>
       <c r="C1357" s="4">
-        <v>6720</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="1358" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15768,7 +15768,7 @@
         <v>121</v>
       </c>
       <c r="C1358" s="4">
-        <v>8820</v>
+        <v>6748</v>
       </c>
     </row>
     <row r="1359" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15779,7 +15779,7 @@
         <v>122</v>
       </c>
       <c r="C1359" s="4">
-        <v>6720</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1360" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15790,7 +15790,7 @@
         <v>123</v>
       </c>
       <c r="C1360" s="4">
-        <v>8400</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="1361" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15801,7 +15801,7 @@
         <v>124</v>
       </c>
       <c r="C1361" s="4">
-        <v>14056</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="1362" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15812,7 +15812,7 @@
         <v>125</v>
       </c>
       <c r="C1362" s="4">
-        <v>11760</v>
+        <v>12390</v>
       </c>
     </row>
     <row r="1363" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15823,7 +15823,7 @@
         <v>126</v>
       </c>
       <c r="C1363" s="4">
-        <v>13020</v>
+        <v>14280</v>
       </c>
     </row>
     <row r="1364" spans="1:3" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15834,7 +15834,7 @@
         <v>127</v>
       </c>
       <c r="C1364" s="4">
-        <v>14700</v>
+        <v>17220</v>
       </c>
     </row>
   </sheetData>
